--- a/data/Najaar2023.xlsx
+++ b/data/Najaar2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\R\minnemj\Modelling\VVH\dioxincattle\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\R\minnemj\Modelling\dioxins-wild-cattle\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52130F52-49AD-425C-997D-457A6DB03FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06B15D3-6C41-4ED4-A8ED-604C3269593F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EE932B3B-E362-414B-A9A4-F7DA8DA93B50}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{EE932B3B-E362-414B-A9A4-F7DA8DA93B50}"/>
   </bookViews>
   <sheets>
     <sheet name="7407401 pivot 2023" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="327">
   <si>
     <t xml:space="preserve">Tabel 3A: </t>
   </si>
@@ -824,12 +824,6 @@
   </si>
   <si>
     <t>&lt;0.059</t>
-  </si>
-  <si>
-    <t>PCB 077</t>
-  </si>
-  <si>
-    <t>PCB 081</t>
   </si>
   <si>
     <t>ML</t>
@@ -6666,10 +6660,10 @@
   <dimension ref="A1:CT231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="6" ySplit="16" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="16" topLeftCell="G124" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="V7" sqref="V7"/>
+      <selection pane="bottomRight" activeCell="A131" sqref="A131:U151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6691,7 +6685,7 @@
   <sheetData>
     <row r="1" spans="1:97" x14ac:dyDescent="0.25">
       <c r="G1" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG1" t="s">
         <v>243</v>
@@ -7050,25 +7044,25 @@
     </row>
     <row r="7" spans="1:97" x14ac:dyDescent="0.25">
       <c r="G7" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>240</v>
@@ -7691,10 +7685,10 @@
         <v>6</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AD13" s="1" t="s">
         <v>6</v>
@@ -16477,12 +16471,12 @@
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -17332,7 +17326,7 @@
     </row>
     <row r="85" spans="1:81" x14ac:dyDescent="0.25">
       <c r="F85" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G85" s="8">
         <v>17.899999999999999</v>
@@ -17379,7 +17373,7 @@
     </row>
     <row r="86" spans="1:81" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G86" s="1">
         <v>628</v>
@@ -17429,49 +17423,49 @@
     </row>
     <row r="88" spans="1:81" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="Q88" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="T88" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U88" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="89" spans="1:81" x14ac:dyDescent="0.25">
@@ -17493,10 +17487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>102</v>
-      </c>
+    <row r="133" spans="7:61" x14ac:dyDescent="0.25">
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
@@ -17508,88 +17499,73 @@
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
       <c r="Q133" s="2"/>
-      <c r="R133" s="2">
-        <f t="shared" ref="R133:U134" si="102">+R71</f>
-        <v>2.0358999999999999E-2</v>
-      </c>
-      <c r="S133" s="2">
-        <f t="shared" si="102"/>
-        <v>3.5074000000000001E-2</v>
-      </c>
-      <c r="T133" s="2">
-        <f t="shared" si="102"/>
-        <v>2.8355000000000002E-2</v>
-      </c>
-      <c r="U133" s="2">
-        <f t="shared" si="102"/>
-        <v>2.5713E-2</v>
-      </c>
-      <c r="AT133" s="6">
-        <f t="shared" ref="AT133:AT150" si="103">+G133/G$151%</f>
-        <v>0</v>
-      </c>
-      <c r="AU133" s="6">
-        <f t="shared" ref="AU133:AU150" si="104">+H133/H$151%</f>
-        <v>0</v>
-      </c>
-      <c r="AV133" s="6">
-        <f t="shared" ref="AV133:AV150" si="105">+I133/I$151%</f>
-        <v>0</v>
-      </c>
-      <c r="AW133" s="6">
-        <f t="shared" ref="AW133:AW150" si="106">+J133/J$151%</f>
-        <v>0</v>
-      </c>
-      <c r="AX133" s="6">
-        <f t="shared" ref="AX133:AX150" si="107">+K133/K$151%</f>
-        <v>0</v>
-      </c>
-      <c r="AY133" s="6">
-        <f t="shared" ref="AY133:AY150" si="108">+L133/L$151%</f>
-        <v>0</v>
-      </c>
-      <c r="AZ133" s="6">
-        <f t="shared" ref="AZ133:AZ150" si="109">+M133/M$151%</f>
-        <v>0</v>
+      <c r="R133" s="2"/>
+      <c r="S133" s="2"/>
+      <c r="T133" s="2"/>
+      <c r="U133" s="2"/>
+      <c r="AT133" s="6" t="e">
+        <f t="shared" ref="AT133:AT150" si="102">+G133/G$151%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU133" s="6" t="e">
+        <f t="shared" ref="AU133:AU150" si="103">+H133/H$151%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV133" s="6" t="e">
+        <f t="shared" ref="AV133:AV150" si="104">+I133/I$151%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW133" s="6" t="e">
+        <f t="shared" ref="AW133:AW150" si="105">+J133/J$151%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX133" s="6" t="e">
+        <f t="shared" ref="AX133:AX150" si="106">+K133/K$151%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY133" s="6" t="e">
+        <f t="shared" ref="AY133:AY150" si="107">+L133/L$151%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ133" s="6" t="e">
+        <f t="shared" ref="AZ133:AZ150" si="108">+M133/M$151%</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="BA133" s="6"/>
-      <c r="BB133" s="6">
-        <f t="shared" ref="BB133:BB150" si="110">+O133/O$151%</f>
-        <v>0</v>
-      </c>
-      <c r="BC133" s="6">
-        <f t="shared" ref="BC133:BC150" si="111">+P133/P$151%</f>
-        <v>0</v>
-      </c>
-      <c r="BD133" s="6">
-        <f t="shared" ref="BD133:BD150" si="112">+Q133/Q$151%</f>
-        <v>0</v>
-      </c>
-      <c r="BE133" s="6">
-        <f t="shared" ref="BE133:BE150" si="113">+R133/R$151%</f>
-        <v>8.8924664528055905E-2</v>
-      </c>
-      <c r="BF133" s="6">
-        <f t="shared" ref="BF133:BF150" si="114">+S133/S$151%</f>
-        <v>3.3397473083901334E-2</v>
-      </c>
-      <c r="BG133" s="6">
-        <f t="shared" ref="BG133:BG150" si="115">+T133/T$151%</f>
-        <v>4.7244138956193518E-2</v>
-      </c>
-      <c r="BH133" s="6">
-        <f t="shared" ref="BH133:BH150" si="116">+U133/U$151%</f>
-        <v>3.4161546084227841E-2</v>
-      </c>
-      <c r="BI133" s="6">
-        <f t="shared" ref="BI133:BI150" si="117">AVERAGE(AT133:BH133)</f>
-        <v>1.4551987332312758E-2</v>
+      <c r="BB133" s="6" t="e">
+        <f t="shared" ref="BB133:BB150" si="109">+O133/O$151%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC133" s="6" t="e">
+        <f t="shared" ref="BC133:BC150" si="110">+P133/P$151%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD133" s="6" t="e">
+        <f t="shared" ref="BD133:BD150" si="111">+Q133/Q$151%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE133" s="6" t="e">
+        <f t="shared" ref="BE133:BE150" si="112">+R133/R$151%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF133" s="6" t="e">
+        <f t="shared" ref="BF133:BF150" si="113">+S133/S$151%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG133" s="6" t="e">
+        <f t="shared" ref="BG133:BG150" si="114">+T133/T$151%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH133" s="6" t="e">
+        <f t="shared" ref="BH133:BH150" si="115">+U133/U$151%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI133" s="6" t="e">
+        <f t="shared" ref="BI133:BI150" si="116">AVERAGE(AT133:BH133)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="134" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>112</v>
-      </c>
+    <row r="134" spans="7:61" x14ac:dyDescent="0.25">
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
@@ -17601,334 +17577,229 @@
       <c r="O134" s="2"/>
       <c r="P134" s="2"/>
       <c r="Q134" s="2"/>
-      <c r="R134" s="2">
+      <c r="R134" s="2"/>
+      <c r="S134" s="2"/>
+      <c r="T134" s="2"/>
+      <c r="U134" s="2"/>
+      <c r="AT134" s="6" t="e">
         <f t="shared" si="102"/>
-        <v>8.3140000000000002E-3</v>
-      </c>
-      <c r="S134" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU134" s="6" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV134" s="6" t="e">
+        <f t="shared" si="104"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW134" s="6" t="e">
+        <f t="shared" si="105"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX134" s="6" t="e">
+        <f t="shared" si="106"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY134" s="6" t="e">
+        <f t="shared" si="107"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ134" s="6" t="e">
+        <f t="shared" si="108"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA134" s="6"/>
+      <c r="BB134" s="6" t="e">
+        <f t="shared" si="109"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC134" s="6" t="e">
+        <f t="shared" si="110"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD134" s="6" t="e">
+        <f t="shared" si="111"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE134" s="6" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF134" s="6" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG134" s="6" t="e">
+        <f t="shared" si="114"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH134" s="6" t="e">
+        <f t="shared" si="115"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI134" s="6" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="135" spans="7:61" x14ac:dyDescent="0.25">
+      <c r="G135" s="16"/>
+      <c r="H135" s="16"/>
+      <c r="I135" s="16"/>
+      <c r="J135" s="16"/>
+      <c r="K135" s="16"/>
+      <c r="L135" s="16"/>
+      <c r="M135" s="16"/>
+      <c r="N135" s="16"/>
+      <c r="O135" s="16"/>
+      <c r="P135" s="16"/>
+      <c r="Q135" s="16"/>
+      <c r="R135" s="16"/>
+      <c r="S135" s="16"/>
+      <c r="T135" s="16"/>
+      <c r="U135" s="16"/>
+      <c r="AT135" s="6" t="e">
         <f t="shared" si="102"/>
-        <v>1.2364999999999999E-2</v>
-      </c>
-      <c r="T134" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU135" s="6" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV135" s="6" t="e">
+        <f t="shared" si="104"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW135" s="6" t="e">
+        <f t="shared" si="105"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX135" s="6" t="e">
+        <f t="shared" si="106"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY135" s="6" t="e">
+        <f t="shared" si="107"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ135" s="6" t="e">
+        <f t="shared" si="108"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA135" s="6"/>
+      <c r="BB135" s="6" t="e">
+        <f t="shared" si="109"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC135" s="6" t="e">
+        <f t="shared" si="110"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD135" s="6" t="e">
+        <f t="shared" si="111"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE135" s="6" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF135" s="6" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG135" s="6" t="e">
+        <f t="shared" si="114"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH135" s="6" t="e">
+        <f t="shared" si="115"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI135" s="6" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="136" spans="7:61" x14ac:dyDescent="0.25">
+      <c r="G136" s="16"/>
+      <c r="H136" s="16"/>
+      <c r="I136" s="16"/>
+      <c r="J136" s="16"/>
+      <c r="K136" s="16"/>
+      <c r="L136" s="16"/>
+      <c r="M136" s="16"/>
+      <c r="N136" s="16"/>
+      <c r="O136" s="16"/>
+      <c r="P136" s="16"/>
+      <c r="Q136" s="16"/>
+      <c r="R136" s="16"/>
+      <c r="S136" s="16"/>
+      <c r="T136" s="16"/>
+      <c r="U136" s="16"/>
+      <c r="AT136" s="6" t="e">
         <f t="shared" si="102"/>
-        <v>1.0026E-2</v>
-      </c>
-      <c r="U134" s="2">
-        <f t="shared" si="102"/>
-        <v>1.0385999999999999E-2</v>
-      </c>
-      <c r="AT134" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU136" s="6" t="e">
         <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="AU134" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV136" s="6" t="e">
         <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="AV134" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW136" s="6" t="e">
         <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="AW134" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX136" s="6" t="e">
         <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="AX134" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY136" s="6" t="e">
         <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="AY134" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ136" s="6" t="e">
         <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="AZ134" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA136" s="6"/>
+      <c r="BB136" s="6" t="e">
         <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="BA134" s="6"/>
-      <c r="BB134" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC136" s="6" t="e">
         <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="BC134" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD136" s="6" t="e">
         <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="BD134" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE136" s="6" t="e">
         <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="BE134" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF136" s="6" t="e">
         <f t="shared" si="113"/>
-        <v>3.6314144156700076E-2</v>
-      </c>
-      <c r="BF134" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG136" s="6" t="e">
         <f t="shared" si="114"/>
-        <v>1.1773956625490106E-2</v>
-      </c>
-      <c r="BG134" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH136" s="6" t="e">
         <f t="shared" si="115"/>
-        <v>1.6704981032438591E-2</v>
-      </c>
-      <c r="BH134" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI136" s="6" t="e">
         <f t="shared" si="116"/>
-        <v>1.379853839033914E-2</v>
-      </c>
-      <c r="BI134" s="6">
-        <f t="shared" si="117"/>
-        <v>5.6136871574977076E-3</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="135" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>261</v>
-      </c>
-      <c r="G135" s="16">
-        <f>+G42/1000</f>
-        <v>2.698766E-3</v>
-      </c>
-      <c r="H135" s="16">
-        <f t="shared" ref="H135:U135" si="118">+H42/1000</f>
-        <v>2.477964E-3</v>
-      </c>
-      <c r="I135" s="16">
-        <f t="shared" si="118"/>
-        <v>2.4051900000000002E-3</v>
-      </c>
-      <c r="J135" s="16">
-        <f t="shared" si="118"/>
-        <v>2.550699E-3</v>
-      </c>
-      <c r="K135" s="16">
-        <f t="shared" si="118"/>
-        <v>2.5866869999999998E-3</v>
-      </c>
-      <c r="L135" s="16">
-        <f t="shared" si="118"/>
-        <v>2.5803090000000002E-3</v>
-      </c>
-      <c r="M135" s="16">
-        <f t="shared" si="118"/>
-        <v>3.0773290000000002E-3</v>
-      </c>
-      <c r="N135" s="16"/>
-      <c r="O135" s="16">
-        <f t="shared" si="118"/>
-        <v>3.5276869999999998E-3</v>
-      </c>
-      <c r="P135" s="16">
-        <f t="shared" si="118"/>
-        <v>3.5459290000000002E-3</v>
-      </c>
-      <c r="Q135" s="16">
-        <f t="shared" si="118"/>
-        <v>3.1647340000000002E-3</v>
-      </c>
-      <c r="R135" s="16">
-        <f t="shared" si="118"/>
-        <v>3.0498910000000003E-3</v>
-      </c>
-      <c r="S135" s="16">
-        <f>+S42/1000</f>
-        <v>3.947224E-3</v>
-      </c>
-      <c r="T135" s="16">
-        <f t="shared" si="118"/>
-        <v>4.0145620000000002E-3</v>
-      </c>
-      <c r="U135" s="16">
-        <f t="shared" si="118"/>
-        <v>3.7791000000000001E-3</v>
-      </c>
-      <c r="AT135" s="6">
-        <f t="shared" si="103"/>
-        <v>2.0289571015196024E-2</v>
-      </c>
-      <c r="AU135" s="6">
-        <f t="shared" si="104"/>
-        <v>1.7266424577155801E-2</v>
-      </c>
-      <c r="AV135" s="6">
-        <f t="shared" si="105"/>
-        <v>4.9273455998682112E-3</v>
-      </c>
-      <c r="AW135" s="6">
-        <f t="shared" si="106"/>
-        <v>3.4594792874041901E-2</v>
-      </c>
-      <c r="AX135" s="6">
-        <f t="shared" si="107"/>
-        <v>6.8093358250042677E-3</v>
-      </c>
-      <c r="AY135" s="6">
-        <f t="shared" si="108"/>
-        <v>7.1880566661578571E-3</v>
-      </c>
-      <c r="AZ135" s="6">
-        <f t="shared" si="109"/>
-        <v>1.337740832282297E-2</v>
-      </c>
-      <c r="BA135" s="6"/>
-      <c r="BB135" s="6">
-        <f t="shared" si="110"/>
-        <v>1.4415785674275766E-2</v>
-      </c>
-      <c r="BC135" s="6">
-        <f t="shared" si="111"/>
-        <v>1.03806564290024E-2</v>
-      </c>
-      <c r="BD135" s="6">
-        <f t="shared" si="112"/>
-        <v>1.3216223444621202E-2</v>
-      </c>
-      <c r="BE135" s="6">
-        <f t="shared" si="113"/>
-        <v>1.3321407437601896E-2</v>
-      </c>
-      <c r="BF135" s="6">
-        <f t="shared" si="114"/>
-        <v>3.7585478501490949E-3</v>
-      </c>
-      <c r="BG135" s="6">
-        <f t="shared" si="115"/>
-        <v>6.6889269961648446E-3</v>
-      </c>
-      <c r="BH135" s="6">
-        <f t="shared" si="116"/>
-        <v>5.0208026604015646E-3</v>
-      </c>
-      <c r="BI135" s="6">
-        <f t="shared" si="117"/>
-        <v>1.2232520383747416E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>262</v>
-      </c>
-      <c r="G136" s="16">
-        <f>+G41/1000</f>
-        <v>1.2734479999999999E-3</v>
-      </c>
-      <c r="H136" s="16">
-        <f t="shared" ref="H136:U136" si="119">+H41/1000</f>
-        <v>1.2743169999999999E-3</v>
-      </c>
-      <c r="I136" s="16">
-        <f t="shared" si="119"/>
-        <v>1.183899E-3</v>
-      </c>
-      <c r="J136" s="16">
-        <f t="shared" si="119"/>
-        <v>1.379017E-3</v>
-      </c>
-      <c r="K136" s="16">
-        <f t="shared" si="119"/>
-        <v>1.415838E-3</v>
-      </c>
-      <c r="L136" s="16">
-        <f t="shared" si="119"/>
-        <v>1.4166650000000001E-3</v>
-      </c>
-      <c r="M136" s="16">
-        <f t="shared" si="119"/>
-        <v>1.4333990000000001E-3</v>
-      </c>
-      <c r="N136" s="16"/>
-      <c r="O136" s="16">
-        <f t="shared" si="119"/>
-        <v>1.904719E-3</v>
-      </c>
-      <c r="P136" s="16">
-        <f t="shared" si="119"/>
-        <v>1.825721E-3</v>
-      </c>
-      <c r="Q136" s="16">
-        <f t="shared" si="119"/>
-        <v>1.65467E-3</v>
-      </c>
-      <c r="R136" s="16">
-        <f t="shared" si="119"/>
-        <v>1.486589E-3</v>
-      </c>
-      <c r="S136" s="16">
-        <f>+S41/1000</f>
-        <v>2.750536E-3</v>
-      </c>
-      <c r="T136" s="16">
-        <f t="shared" si="119"/>
-        <v>2.3972239999999999E-3</v>
-      </c>
-      <c r="U136" s="16">
-        <f t="shared" si="119"/>
-        <v>2.627796E-3</v>
-      </c>
-      <c r="AT136" s="6">
-        <f t="shared" si="103"/>
-        <v>9.5738991932458554E-3</v>
-      </c>
-      <c r="AU136" s="6">
-        <f t="shared" si="104"/>
-        <v>8.8794261611094619E-3</v>
-      </c>
-      <c r="AV136" s="6">
-        <f t="shared" si="105"/>
-        <v>2.4253716040472375E-3</v>
-      </c>
-      <c r="AW136" s="6">
-        <f t="shared" si="106"/>
-        <v>1.8703425015959403E-2</v>
-      </c>
-      <c r="AX136" s="6">
-        <f t="shared" si="107"/>
-        <v>3.7271291098623037E-3</v>
-      </c>
-      <c r="AY136" s="6">
-        <f t="shared" si="108"/>
-        <v>3.9464530399120883E-3</v>
-      </c>
-      <c r="AZ136" s="6">
-        <f t="shared" si="109"/>
-        <v>6.2311061678897908E-3</v>
-      </c>
-      <c r="BA136" s="6"/>
-      <c r="BB136" s="6">
-        <f t="shared" si="110"/>
-        <v>7.7835762848917339E-3</v>
-      </c>
-      <c r="BC136" s="6">
-        <f t="shared" si="111"/>
-        <v>5.3447721136589852E-3</v>
-      </c>
-      <c r="BD136" s="6">
-        <f t="shared" si="112"/>
-        <v>6.910055773127019E-3</v>
-      </c>
-      <c r="BE136" s="6">
-        <f t="shared" si="113"/>
-        <v>6.4931690218624745E-3</v>
-      </c>
-      <c r="BF136" s="6">
-        <f t="shared" si="114"/>
-        <v>2.6190611856731949E-3</v>
-      </c>
-      <c r="BG136" s="6">
-        <f t="shared" si="115"/>
-        <v>3.9941732944849956E-3</v>
-      </c>
-      <c r="BH136" s="6">
-        <f t="shared" si="116"/>
-        <v>3.4912135555535948E-3</v>
-      </c>
-      <c r="BI136" s="6">
-        <f t="shared" si="117"/>
-        <v>6.4373451086627244E-3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>123</v>
-      </c>
+    <row r="137" spans="7:61" x14ac:dyDescent="0.25">
       <c r="G137" s="16"/>
       <c r="H137" s="16"/>
       <c r="I137" s="16"/>
@@ -17944,1760 +17815,1154 @@
       <c r="S137" s="16"/>
       <c r="T137" s="16"/>
       <c r="U137" s="16"/>
-      <c r="AT137" s="6">
+      <c r="AT137" s="6" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU137" s="6" t="e">
         <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="AU137" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV137" s="6" t="e">
         <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="AV137" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW137" s="6" t="e">
         <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="AW137" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX137" s="6" t="e">
         <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="AX137" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY137" s="6" t="e">
         <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="AY137" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ137" s="6" t="e">
         <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="AZ137" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA137" s="6"/>
+      <c r="BB137" s="6" t="e">
         <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="BA137" s="6"/>
-      <c r="BB137" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC137" s="6" t="e">
         <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="BC137" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD137" s="6" t="e">
         <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="BD137" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE137" s="6" t="e">
         <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="BE137" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF137" s="6" t="e">
         <f t="shared" si="113"/>
-        <v>0</v>
-      </c>
-      <c r="BF137" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG137" s="6" t="e">
         <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="BG137" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH137" s="6" t="e">
         <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="BH137" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI137" s="6" t="e">
         <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="BI137" s="6">
-        <f t="shared" si="117"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="138" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>89</v>
-      </c>
-      <c r="G138" s="16">
-        <f>+G54/1000</f>
-        <v>0.255</v>
-      </c>
-      <c r="H138" s="16">
-        <f t="shared" ref="H138:U138" si="120">+H54/1000</f>
-        <v>0.25</v>
-      </c>
-      <c r="I138" s="16">
-        <f t="shared" si="120"/>
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="J138" s="16">
-        <f t="shared" si="120"/>
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="K138" s="16">
-        <f t="shared" si="120"/>
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="L138" s="16">
-        <f t="shared" si="120"/>
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="M138" s="16">
-        <f t="shared" si="120"/>
-        <v>0.34599999999999997</v>
-      </c>
+    <row r="138" spans="7:61" x14ac:dyDescent="0.25">
+      <c r="G138" s="16"/>
+      <c r="H138" s="16"/>
+      <c r="I138" s="16"/>
+      <c r="J138" s="16"/>
+      <c r="K138" s="16"/>
+      <c r="L138" s="16"/>
+      <c r="M138" s="16"/>
       <c r="N138" s="16"/>
-      <c r="O138" s="16">
-        <f t="shared" si="120"/>
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="P138" s="16">
-        <f t="shared" si="120"/>
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="Q138" s="16">
-        <f t="shared" si="120"/>
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="R138" s="16">
-        <f t="shared" si="120"/>
-        <v>0.39611023299999998</v>
-      </c>
-      <c r="S138" s="16">
-        <f>+S54/1000</f>
-        <v>1.458427076</v>
-      </c>
-      <c r="T138" s="16">
-        <f t="shared" si="120"/>
-        <v>0.91871274300000005</v>
-      </c>
-      <c r="U138" s="16">
-        <f t="shared" si="120"/>
-        <v>1.0789174190000002</v>
-      </c>
-      <c r="AT138" s="6">
+      <c r="O138" s="16"/>
+      <c r="P138" s="16"/>
+      <c r="Q138" s="16"/>
+      <c r="R138" s="16"/>
+      <c r="S138" s="16"/>
+      <c r="T138" s="16"/>
+      <c r="U138" s="16"/>
+      <c r="AT138" s="6" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU138" s="6" t="e">
         <f t="shared" si="103"/>
-        <v>1.9171134543991537</v>
-      </c>
-      <c r="AU138" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV138" s="6" t="e">
         <f t="shared" si="104"/>
-        <v>1.7419971171045867</v>
-      </c>
-      <c r="AV138" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW138" s="6" t="e">
         <f t="shared" si="105"/>
-        <v>0.94441866195154867</v>
-      </c>
-      <c r="AW138" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX138" s="6" t="e">
         <f t="shared" si="106"/>
-        <v>3.2415253610465262</v>
-      </c>
-      <c r="AX138" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY138" s="6" t="e">
         <f t="shared" si="107"/>
-        <v>1.584737607082948</v>
-      </c>
-      <c r="AY138" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ138" s="6" t="e">
         <f t="shared" si="108"/>
-        <v>1.6324406132631804</v>
-      </c>
-      <c r="AZ138" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA138" s="6"/>
+      <c r="BB138" s="6" t="e">
         <f t="shared" si="109"/>
-        <v>1.5040911386779727</v>
-      </c>
-      <c r="BA138" s="6"/>
-      <c r="BB138" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC138" s="6" t="e">
         <f t="shared" si="110"/>
-        <v>2.4273629407937283</v>
-      </c>
-      <c r="BC138" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD138" s="6" t="e">
         <f t="shared" si="111"/>
-        <v>1.6628118757237842</v>
-      </c>
-      <c r="BD138" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE138" s="6" t="e">
         <f t="shared" si="112"/>
-        <v>1.7080220292922157</v>
-      </c>
-      <c r="BE138" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF138" s="6" t="e">
         <f t="shared" si="113"/>
-        <v>1.7301424227936077</v>
-      </c>
-      <c r="BF138" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG138" s="6" t="e">
         <f t="shared" si="114"/>
-        <v>1.3887146893865234</v>
-      </c>
-      <c r="BG138" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH138" s="6" t="e">
         <f t="shared" si="115"/>
-        <v>1.5307280018027756</v>
-      </c>
-      <c r="BH138" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI138" s="6" t="e">
         <f t="shared" si="116"/>
-        <v>1.4334183926513695</v>
-      </c>
-      <c r="BI138" s="6">
-        <f t="shared" si="117"/>
-        <v>1.7462517361407086</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="139" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>85</v>
-      </c>
+    <row r="139" spans="7:61" x14ac:dyDescent="0.25">
       <c r="G139" s="16"/>
       <c r="H139" s="16"/>
-      <c r="I139" s="16">
-        <f t="shared" ref="I139:U139" si="121">+I53/1000</f>
-        <v>8.1900000000000001E-2</v>
-      </c>
+      <c r="I139" s="16"/>
       <c r="J139" s="16"/>
-      <c r="K139" s="16">
-        <f t="shared" si="121"/>
-        <v>7.1400000000000005E-2</v>
-      </c>
-      <c r="L139" s="16">
-        <f t="shared" si="121"/>
-        <v>6.9099999999999995E-2</v>
-      </c>
-      <c r="M139" s="16">
-        <f t="shared" si="121"/>
-        <v>4.5999999999999999E-2</v>
-      </c>
+      <c r="K139" s="16"/>
+      <c r="L139" s="16"/>
+      <c r="M139" s="16"/>
       <c r="N139" s="16"/>
-      <c r="O139" s="16">
-        <f t="shared" si="121"/>
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="P139" s="16">
-        <f t="shared" si="121"/>
-        <v>7.4499999999999997E-2</v>
-      </c>
-      <c r="Q139" s="16">
-        <f t="shared" si="121"/>
-        <v>5.0500000000000003E-2</v>
-      </c>
-      <c r="R139" s="16">
-        <f t="shared" si="121"/>
-        <v>4.4209321000000003E-2</v>
-      </c>
-      <c r="S139" s="16">
-        <f>+S53/1000</f>
-        <v>0.19708282900000001</v>
-      </c>
-      <c r="T139" s="16">
-        <f t="shared" si="121"/>
-        <v>0.12195123100000001</v>
-      </c>
-      <c r="U139" s="16">
-        <f t="shared" si="121"/>
-        <v>0.138308925</v>
-      </c>
-      <c r="AT139" s="6">
+      <c r="O139" s="16"/>
+      <c r="P139" s="16"/>
+      <c r="Q139" s="16"/>
+      <c r="R139" s="16"/>
+      <c r="S139" s="16"/>
+      <c r="T139" s="16"/>
+      <c r="U139" s="16"/>
+      <c r="AT139" s="6" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU139" s="6" t="e">
         <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="AU139" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV139" s="6" t="e">
         <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="AV139" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW139" s="6" t="e">
         <f t="shared" si="105"/>
-        <v>0.16778283820787818</v>
-      </c>
-      <c r="AW139" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX139" s="6" t="e">
         <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="AX139" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY139" s="6" t="e">
         <f t="shared" si="107"/>
-        <v>0.18795725107262873</v>
-      </c>
-      <c r="AY139" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ139" s="6" t="e">
         <f t="shared" si="108"/>
-        <v>0.19249427709297912</v>
-      </c>
-      <c r="AZ139" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA139" s="6"/>
+      <c r="BB139" s="6" t="e">
         <f t="shared" si="109"/>
-        <v>0.19996587392828538</v>
-      </c>
-      <c r="BA139" s="6"/>
-      <c r="BB139" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC139" s="6" t="e">
         <f t="shared" si="110"/>
-        <v>0.22884229744856699</v>
-      </c>
-      <c r="BC139" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD139" s="6" t="e">
         <f t="shared" si="111"/>
-        <v>0.21809768440391186</v>
-      </c>
-      <c r="BD139" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE139" s="6" t="e">
         <f t="shared" si="112"/>
-        <v>0.21089269554830539</v>
-      </c>
-      <c r="BE139" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF139" s="6" t="e">
         <f t="shared" si="113"/>
-        <v>0.19309882798458361</v>
-      </c>
-      <c r="BF139" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG139" s="6" t="e">
         <f t="shared" si="114"/>
-        <v>0.18766232755963477</v>
-      </c>
-      <c r="BG139" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH139" s="6" t="e">
         <f t="shared" si="115"/>
-        <v>0.20319100346474536</v>
-      </c>
-      <c r="BH139" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI139" s="6" t="e">
         <f t="shared" si="116"/>
-        <v>0.18375322658762153</v>
-      </c>
-      <c r="BI139" s="6">
-        <f t="shared" si="117"/>
-        <v>0.15526702166422438</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="140" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>84</v>
-      </c>
-      <c r="G140" s="16">
-        <f>+G52/1000</f>
-        <v>1.63</v>
-      </c>
-      <c r="H140" s="16">
-        <f t="shared" ref="H140:U140" si="122">+H52/1000</f>
-        <v>1.55</v>
-      </c>
-      <c r="I140" s="16">
-        <f t="shared" si="122"/>
-        <v>5.4</v>
-      </c>
-      <c r="J140" s="16">
-        <f t="shared" si="122"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="K140" s="16">
-        <f t="shared" si="122"/>
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="L140" s="16">
-        <f t="shared" si="122"/>
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="M140" s="16">
-        <f t="shared" si="122"/>
-        <v>2.2400000000000002</v>
-      </c>
+    <row r="140" spans="7:61" x14ac:dyDescent="0.25">
+      <c r="G140" s="16"/>
+      <c r="H140" s="16"/>
+      <c r="I140" s="16"/>
+      <c r="J140" s="16"/>
+      <c r="K140" s="16"/>
+      <c r="L140" s="16"/>
+      <c r="M140" s="16"/>
       <c r="N140" s="16"/>
-      <c r="O140" s="16">
-        <f t="shared" si="122"/>
-        <v>2.79</v>
-      </c>
-      <c r="P140" s="16">
-        <f t="shared" si="122"/>
-        <v>3.68</v>
-      </c>
-      <c r="Q140" s="16">
-        <f t="shared" si="122"/>
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="R140" s="16">
-        <f t="shared" si="122"/>
-        <v>2.4373258760000001</v>
-      </c>
-      <c r="S140" s="16">
-        <f>+S52/1000</f>
-        <v>9.8718474359999995</v>
-      </c>
-      <c r="T140" s="16">
-        <f t="shared" si="122"/>
-        <v>6.6027788360000006</v>
-      </c>
-      <c r="U140" s="16">
-        <f t="shared" si="122"/>
-        <v>7.4323959799999999</v>
-      </c>
-      <c r="AT140" s="6">
+      <c r="O140" s="16"/>
+      <c r="P140" s="16"/>
+      <c r="Q140" s="16"/>
+      <c r="R140" s="16"/>
+      <c r="S140" s="16"/>
+      <c r="T140" s="16"/>
+      <c r="U140" s="16"/>
+      <c r="AT140" s="6" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU140" s="6" t="e">
         <f t="shared" si="103"/>
-        <v>12.254489924198511</v>
-      </c>
-      <c r="AU140" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV140" s="6" t="e">
         <f t="shared" si="104"/>
-        <v>10.800382126048438</v>
-      </c>
-      <c r="AV140" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW140" s="6" t="e">
         <f t="shared" si="105"/>
-        <v>11.062604717002957</v>
-      </c>
-      <c r="AW140" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX140" s="6" t="e">
         <f t="shared" si="106"/>
-        <v>15.597297762357762</v>
-      </c>
-      <c r="AX140" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY140" s="6" t="e">
         <f t="shared" si="107"/>
-        <v>12.003992505478807</v>
-      </c>
-      <c r="AY140" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ140" s="6" t="e">
         <f t="shared" si="108"/>
-        <v>12.14580388025165</v>
-      </c>
-      <c r="AZ140" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA140" s="6"/>
+      <c r="BB140" s="6" t="e">
         <f t="shared" si="109"/>
-        <v>9.7374686434643341</v>
-      </c>
-      <c r="BA140" s="6"/>
-      <c r="BB140" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC140" s="6" t="e">
         <f t="shared" si="110"/>
-        <v>11.401250176455392</v>
-      </c>
-      <c r="BC140" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD140" s="6" t="e">
         <f t="shared" si="111"/>
-        <v>10.773147363844238</v>
-      </c>
-      <c r="BD140" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE140" s="6" t="e">
         <f t="shared" si="112"/>
-        <v>10.565515242321041</v>
-      </c>
-      <c r="BE140" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF140" s="6" t="e">
         <f t="shared" si="113"/>
-        <v>10.645826704103836</v>
-      </c>
-      <c r="BF140" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG140" s="6" t="e">
         <f t="shared" si="114"/>
-        <v>9.3999760230424361</v>
-      </c>
-      <c r="BG140" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH140" s="6" t="e">
         <f t="shared" si="115"/>
-        <v>11.001326073884595</v>
-      </c>
-      <c r="BH140" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI140" s="6" t="e">
         <f t="shared" si="116"/>
-        <v>9.874465748337407</v>
-      </c>
-      <c r="BI140" s="6">
-        <f t="shared" si="117"/>
-        <v>11.233110492199385</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="141" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>80</v>
-      </c>
+    <row r="141" spans="7:61" x14ac:dyDescent="0.25">
       <c r="G141" s="16"/>
       <c r="H141" s="16"/>
-      <c r="I141" s="16">
-        <f t="shared" ref="I141:U141" si="123">+I51/1000</f>
-        <v>6.7400000000000002E-2</v>
-      </c>
+      <c r="I141" s="16"/>
       <c r="J141" s="16"/>
-      <c r="K141" s="16">
-        <f t="shared" si="123"/>
-        <v>6.9800000000000001E-2</v>
-      </c>
-      <c r="L141" s="16">
-        <f t="shared" si="123"/>
-        <v>6.93E-2</v>
-      </c>
-      <c r="M141" s="16">
-        <f t="shared" si="123"/>
-        <v>4.1700000000000001E-2</v>
-      </c>
+      <c r="K141" s="16"/>
+      <c r="L141" s="16"/>
+      <c r="M141" s="16"/>
       <c r="N141" s="16"/>
-      <c r="O141" s="16">
-        <f t="shared" si="123"/>
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="P141" s="16">
-        <f t="shared" si="123"/>
-        <v>6.6400000000000001E-2</v>
-      </c>
-      <c r="Q141" s="16">
-        <f t="shared" si="123"/>
-        <v>4.82E-2</v>
-      </c>
-      <c r="R141" s="16">
-        <f t="shared" si="123"/>
-        <v>4.2578727999999996E-2</v>
-      </c>
-      <c r="S141" s="16">
-        <f>+S51/1000</f>
-        <v>0.153652391</v>
-      </c>
-      <c r="T141" s="16">
-        <f t="shared" si="123"/>
-        <v>9.6572265000000004E-2</v>
-      </c>
-      <c r="U141" s="16">
-        <f t="shared" si="123"/>
-        <v>0.106536004</v>
-      </c>
-      <c r="AT141" s="6">
+      <c r="O141" s="16"/>
+      <c r="P141" s="16"/>
+      <c r="Q141" s="16"/>
+      <c r="R141" s="16"/>
+      <c r="S141" s="16"/>
+      <c r="T141" s="16"/>
+      <c r="U141" s="16"/>
+      <c r="AT141" s="6" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU141" s="6" t="e">
         <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="AU141" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV141" s="6" t="e">
         <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="AV141" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW141" s="6" t="e">
         <f t="shared" si="105"/>
-        <v>0.13807769591222208</v>
-      </c>
-      <c r="AW141" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX141" s="6" t="e">
         <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="AX141" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY141" s="6" t="e">
         <f t="shared" si="107"/>
-        <v>0.18374532387772388</v>
-      </c>
-      <c r="AY141" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ141" s="6" t="e">
         <f t="shared" si="108"/>
-        <v>0.19305142405996314</v>
-      </c>
-      <c r="AZ141" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA141" s="6"/>
+      <c r="BB141" s="6" t="e">
         <f t="shared" si="109"/>
-        <v>0.18127341180020654</v>
-      </c>
-      <c r="BA141" s="6"/>
-      <c r="BB141" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC141" s="6" t="e">
         <f t="shared" si="110"/>
-        <v>0.24110170624045449</v>
-      </c>
-      <c r="BC141" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD141" s="6" t="e">
         <f t="shared" si="111"/>
-        <v>0.19438505026066777</v>
-      </c>
-      <c r="BD141" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE141" s="6" t="e">
         <f t="shared" si="112"/>
-        <v>0.20128768169164987</v>
-      </c>
-      <c r="BE141" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF141" s="6" t="e">
         <f t="shared" si="113"/>
-        <v>0.18597667387550179</v>
-      </c>
-      <c r="BF141" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG141" s="6" t="e">
         <f t="shared" si="114"/>
-        <v>0.14630785176197705</v>
-      </c>
-      <c r="BG141" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH141" s="6" t="e">
         <f t="shared" si="115"/>
-        <v>0.16090543138685748</v>
-      </c>
-      <c r="BH141" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI141" s="6" t="e">
         <f t="shared" si="116"/>
-        <v>0.14154064520964033</v>
-      </c>
-      <c r="BI141" s="6">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="142" spans="7:61" x14ac:dyDescent="0.25">
+      <c r="G142" s="16"/>
+      <c r="H142" s="16"/>
+      <c r="I142" s="16"/>
+      <c r="J142" s="16"/>
+      <c r="K142" s="16"/>
+      <c r="L142" s="16"/>
+      <c r="M142" s="16"/>
+      <c r="N142" s="16"/>
+      <c r="O142" s="16"/>
+      <c r="P142" s="16"/>
+      <c r="Q142" s="16"/>
+      <c r="R142" s="16"/>
+      <c r="S142" s="16"/>
+      <c r="T142" s="16"/>
+      <c r="U142" s="16"/>
+      <c r="AT142" s="6" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU142" s="6" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV142" s="6" t="e">
+        <f t="shared" si="104"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW142" s="6" t="e">
+        <f t="shared" si="105"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX142" s="6" t="e">
+        <f t="shared" si="106"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY142" s="6" t="e">
+        <f t="shared" si="107"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ142" s="6" t="e">
+        <f t="shared" si="108"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA142" s="6"/>
+      <c r="BB142" s="6" t="e">
+        <f t="shared" si="109"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC142" s="6" t="e">
+        <f t="shared" si="110"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD142" s="6" t="e">
+        <f t="shared" si="111"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE142" s="6" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF142" s="6" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG142" s="6" t="e">
+        <f t="shared" si="114"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH142" s="6" t="e">
+        <f t="shared" si="115"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI142" s="6" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="143" spans="7:61" x14ac:dyDescent="0.25">
+      <c r="G143" s="16"/>
+      <c r="H143" s="16"/>
+      <c r="I143" s="16"/>
+      <c r="J143" s="16"/>
+      <c r="K143" s="16"/>
+      <c r="L143" s="16"/>
+      <c r="M143" s="16"/>
+      <c r="N143" s="16"/>
+      <c r="O143" s="16"/>
+      <c r="P143" s="16"/>
+      <c r="Q143" s="16"/>
+      <c r="R143" s="16"/>
+      <c r="S143" s="16"/>
+      <c r="T143" s="16"/>
+      <c r="U143" s="16"/>
+      <c r="AT143" s="6" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU143" s="6" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV143" s="6" t="e">
+        <f t="shared" si="104"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW143" s="6" t="e">
+        <f t="shared" si="105"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX143" s="6" t="e">
+        <f t="shared" si="106"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY143" s="6" t="e">
+        <f t="shared" si="107"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ143" s="6" t="e">
+        <f t="shared" si="108"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA143" s="6"/>
+      <c r="BB143" s="6" t="e">
+        <f t="shared" si="109"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC143" s="6" t="e">
+        <f t="shared" si="110"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD143" s="6" t="e">
+        <f t="shared" si="111"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE143" s="6" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF143" s="6" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG143" s="6" t="e">
+        <f t="shared" si="114"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH143" s="6" t="e">
+        <f t="shared" si="115"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI143" s="6" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="144" spans="7:61" x14ac:dyDescent="0.25">
+      <c r="G144" s="16"/>
+      <c r="H144" s="16"/>
+      <c r="I144" s="16"/>
+      <c r="J144" s="16"/>
+      <c r="K144" s="16"/>
+      <c r="L144" s="16"/>
+      <c r="M144" s="16"/>
+      <c r="N144" s="16"/>
+      <c r="O144" s="16"/>
+      <c r="P144" s="16"/>
+      <c r="Q144" s="16"/>
+      <c r="R144" s="16"/>
+      <c r="S144" s="16"/>
+      <c r="T144" s="16"/>
+      <c r="U144" s="16"/>
+      <c r="AT144" s="6" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU144" s="6" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV144" s="6" t="e">
+        <f t="shared" si="104"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW144" s="6" t="e">
+        <f t="shared" si="105"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX144" s="6" t="e">
+        <f t="shared" si="106"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY144" s="6" t="e">
+        <f t="shared" si="107"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ144" s="6" t="e">
+        <f t="shared" si="108"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA144" s="6"/>
+      <c r="BB144" s="6" t="e">
+        <f t="shared" si="109"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC144" s="6" t="e">
+        <f t="shared" si="110"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD144" s="6" t="e">
+        <f t="shared" si="111"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE144" s="6" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF144" s="6" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG144" s="6" t="e">
+        <f t="shared" si="114"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH144" s="6" t="e">
+        <f t="shared" si="115"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI144" s="6" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="145" spans="7:61" x14ac:dyDescent="0.25">
+      <c r="G145" s="16"/>
+      <c r="H145" s="16"/>
+      <c r="I145" s="16"/>
+      <c r="J145" s="16"/>
+      <c r="K145" s="16"/>
+      <c r="L145" s="16"/>
+      <c r="M145" s="16"/>
+      <c r="N145" s="16"/>
+      <c r="O145" s="16"/>
+      <c r="P145" s="16"/>
+      <c r="Q145" s="16"/>
+      <c r="R145" s="16"/>
+      <c r="S145" s="16"/>
+      <c r="T145" s="16"/>
+      <c r="U145" s="16"/>
+      <c r="AT145" s="6" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU145" s="6" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV145" s="6" t="e">
+        <f t="shared" si="104"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW145" s="6" t="e">
+        <f t="shared" si="105"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX145" s="6" t="e">
+        <f t="shared" si="106"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY145" s="6" t="e">
+        <f t="shared" si="107"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ145" s="6" t="e">
+        <f t="shared" si="108"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA145" s="6"/>
+      <c r="BB145" s="6" t="e">
+        <f t="shared" si="109"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC145" s="6" t="e">
+        <f t="shared" si="110"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD145" s="6" t="e">
+        <f t="shared" si="111"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE145" s="6" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF145" s="6" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG145" s="6" t="e">
+        <f t="shared" si="114"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH145" s="6" t="e">
+        <f t="shared" si="115"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI145" s="6" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="146" spans="7:61" x14ac:dyDescent="0.25">
+      <c r="G146" s="16"/>
+      <c r="H146" s="16"/>
+      <c r="I146" s="16"/>
+      <c r="J146" s="16"/>
+      <c r="K146" s="16"/>
+      <c r="L146" s="16"/>
+      <c r="M146" s="16"/>
+      <c r="N146" s="16"/>
+      <c r="O146" s="16"/>
+      <c r="P146" s="16"/>
+      <c r="Q146" s="16"/>
+      <c r="R146" s="16"/>
+      <c r="S146" s="16"/>
+      <c r="T146" s="16"/>
+      <c r="U146" s="16"/>
+      <c r="AT146" s="6" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU146" s="6" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV146" s="6" t="e">
+        <f t="shared" si="104"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW146" s="6" t="e">
+        <f t="shared" si="105"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX146" s="6" t="e">
+        <f t="shared" si="106"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY146" s="6" t="e">
+        <f t="shared" si="107"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ146" s="6" t="e">
+        <f t="shared" si="108"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA146" s="6"/>
+      <c r="BB146" s="6" t="e">
+        <f t="shared" si="109"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC146" s="6" t="e">
+        <f t="shared" si="110"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD146" s="6" t="e">
+        <f t="shared" si="111"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE146" s="6" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF146" s="6" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG146" s="6" t="e">
+        <f t="shared" si="114"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH146" s="6" t="e">
+        <f t="shared" si="115"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI146" s="6" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="147" spans="7:61" x14ac:dyDescent="0.25">
+      <c r="G147" s="16"/>
+      <c r="H147" s="16"/>
+      <c r="I147" s="16"/>
+      <c r="J147" s="16"/>
+      <c r="K147" s="16"/>
+      <c r="L147" s="16"/>
+      <c r="M147" s="16"/>
+      <c r="N147" s="16"/>
+      <c r="O147" s="16"/>
+      <c r="P147" s="16"/>
+      <c r="Q147" s="16"/>
+      <c r="R147" s="16"/>
+      <c r="S147" s="16"/>
+      <c r="T147" s="16"/>
+      <c r="U147" s="16"/>
+      <c r="AT147" s="6" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU147" s="6" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV147" s="6" t="e">
+        <f t="shared" si="104"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW147" s="6" t="e">
+        <f t="shared" si="105"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX147" s="6" t="e">
+        <f t="shared" si="106"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY147" s="6" t="e">
+        <f t="shared" si="107"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ147" s="6" t="e">
+        <f t="shared" si="108"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA147" s="6"/>
+      <c r="BB147" s="6" t="e">
+        <f t="shared" si="109"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC147" s="6" t="e">
+        <f t="shared" si="110"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD147" s="6" t="e">
+        <f t="shared" si="111"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE147" s="6" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF147" s="6" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG147" s="6" t="e">
+        <f t="shared" si="114"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH147" s="6" t="e">
+        <f t="shared" si="115"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI147" s="6" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="148" spans="7:61" x14ac:dyDescent="0.25">
+      <c r="G148" s="16"/>
+      <c r="H148" s="16"/>
+      <c r="I148" s="16"/>
+      <c r="J148" s="16"/>
+      <c r="K148" s="16"/>
+      <c r="L148" s="16"/>
+      <c r="M148" s="16"/>
+      <c r="N148" s="16"/>
+      <c r="O148" s="16"/>
+      <c r="P148" s="16"/>
+      <c r="Q148" s="16"/>
+      <c r="R148" s="16"/>
+      <c r="S148" s="16"/>
+      <c r="T148" s="16"/>
+      <c r="U148" s="16"/>
+      <c r="AT148" s="6" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU148" s="6" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV148" s="6" t="e">
+        <f t="shared" si="104"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW148" s="6" t="e">
+        <f t="shared" si="105"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX148" s="6" t="e">
+        <f t="shared" si="106"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY148" s="6" t="e">
+        <f t="shared" si="107"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ148" s="6" t="e">
+        <f t="shared" si="108"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA148" s="6"/>
+      <c r="BB148" s="6" t="e">
+        <f t="shared" si="109"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC148" s="6" t="e">
+        <f t="shared" si="110"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD148" s="6" t="e">
+        <f t="shared" si="111"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE148" s="6" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF148" s="6" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG148" s="6" t="e">
+        <f t="shared" si="114"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH148" s="6" t="e">
+        <f t="shared" si="115"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI148" s="6" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="149" spans="7:61" x14ac:dyDescent="0.25">
+      <c r="G149" s="16"/>
+      <c r="H149" s="16"/>
+      <c r="I149" s="16"/>
+      <c r="J149" s="16"/>
+      <c r="K149" s="16"/>
+      <c r="L149" s="16"/>
+      <c r="M149" s="16"/>
+      <c r="N149" s="16"/>
+      <c r="O149" s="16"/>
+      <c r="P149" s="16"/>
+      <c r="Q149" s="16"/>
+      <c r="R149" s="16"/>
+      <c r="S149" s="16"/>
+      <c r="T149" s="16"/>
+      <c r="U149" s="16"/>
+      <c r="AT149" s="6" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU149" s="6" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV149" s="6" t="e">
+        <f t="shared" si="104"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW149" s="6" t="e">
+        <f t="shared" si="105"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX149" s="6" t="e">
+        <f t="shared" si="106"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY149" s="6" t="e">
+        <f t="shared" si="107"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ149" s="6" t="e">
+        <f t="shared" si="108"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA149" s="6"/>
+      <c r="BB149" s="6" t="e">
+        <f t="shared" si="109"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC149" s="6" t="e">
+        <f t="shared" si="110"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD149" s="6" t="e">
+        <f t="shared" si="111"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE149" s="6" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF149" s="6" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG149" s="6" t="e">
+        <f t="shared" si="114"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH149" s="6" t="e">
+        <f t="shared" si="115"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI149" s="6" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="150" spans="7:61" x14ac:dyDescent="0.25">
+      <c r="G150" s="16"/>
+      <c r="H150" s="16"/>
+      <c r="I150" s="16"/>
+      <c r="J150" s="16"/>
+      <c r="K150" s="16"/>
+      <c r="L150" s="16"/>
+      <c r="M150" s="16"/>
+      <c r="N150" s="16"/>
+      <c r="O150" s="16"/>
+      <c r="P150" s="16"/>
+      <c r="Q150" s="16"/>
+      <c r="R150" s="16"/>
+      <c r="S150" s="16"/>
+      <c r="T150" s="16"/>
+      <c r="U150" s="16"/>
+      <c r="AT150" s="6" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU150" s="6" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV150" s="6" t="e">
+        <f t="shared" si="104"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW150" s="6" t="e">
+        <f t="shared" si="105"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX150" s="6" t="e">
+        <f t="shared" si="106"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY150" s="6" t="e">
+        <f t="shared" si="107"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ150" s="6" t="e">
+        <f t="shared" si="108"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA150" s="6"/>
+      <c r="BB150" s="6" t="e">
+        <f t="shared" si="109"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC150" s="6" t="e">
+        <f t="shared" si="110"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD150" s="6" t="e">
+        <f t="shared" si="111"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE150" s="6" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF150" s="6" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG150" s="6" t="e">
+        <f t="shared" si="114"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH150" s="6" t="e">
+        <f t="shared" si="115"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI150" s="6" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="151" spans="7:61" x14ac:dyDescent="0.25">
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
+      <c r="O151" s="2"/>
+      <c r="P151" s="2"/>
+      <c r="Q151" s="2"/>
+      <c r="R151" s="2"/>
+      <c r="S151" s="2"/>
+      <c r="T151" s="2"/>
+      <c r="U151" s="2"/>
+      <c r="AT151" s="6" t="e">
+        <f t="shared" ref="AT151:AY151" si="117">SUM(AT133:AT150)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU151" s="6" t="e">
         <f t="shared" si="117"/>
-        <v>0.14054663543406173</v>
-      </c>
-    </row>
-    <row r="142" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>75</v>
-      </c>
-      <c r="G142" s="16">
-        <f>+G43/1000</f>
-        <v>1.0903344000000001E-2</v>
-      </c>
-      <c r="H142" s="16">
-        <f t="shared" ref="H142:U142" si="124">+H43/1000</f>
-        <v>1.0402382E-2</v>
-      </c>
-      <c r="I142" s="16">
-        <f t="shared" si="124"/>
-        <v>2.4915883E-2</v>
-      </c>
-      <c r="J142" s="16">
-        <f t="shared" si="124"/>
-        <v>9.3583139999999995E-3</v>
-      </c>
-      <c r="K142" s="16">
-        <f t="shared" si="124"/>
-        <v>2.4666344999999999E-2</v>
-      </c>
-      <c r="L142" s="16">
-        <f t="shared" si="124"/>
-        <v>2.2233992000000001E-2</v>
-      </c>
-      <c r="M142" s="16">
-        <f t="shared" si="124"/>
-        <v>1.1833468999999999E-2</v>
-      </c>
-      <c r="N142" s="16"/>
-      <c r="O142" s="16">
-        <f t="shared" si="124"/>
-        <v>1.9642403000000003E-2</v>
-      </c>
-      <c r="P142" s="16">
-        <f t="shared" si="124"/>
-        <v>2.3593546999999999E-2</v>
-      </c>
-      <c r="Q142" s="16">
-        <f t="shared" si="124"/>
-        <v>1.6518156999999999E-2</v>
-      </c>
-      <c r="R142" s="16">
-        <f t="shared" si="124"/>
-        <v>1.5654479999999998E-2</v>
-      </c>
-      <c r="S142" s="16">
-        <f>+S43/1000</f>
-        <v>4.8954894000000006E-2</v>
-      </c>
-      <c r="T142" s="16">
-        <f t="shared" si="124"/>
-        <v>3.4279501000000004E-2</v>
-      </c>
-      <c r="U142" s="16">
-        <f t="shared" si="124"/>
-        <v>3.7604616E-2</v>
-      </c>
-      <c r="AT142" s="6">
-        <f t="shared" si="103"/>
-        <v>8.1972343060165834E-2</v>
-      </c>
-      <c r="AU142" s="6">
-        <f t="shared" si="104"/>
-        <v>7.2483677820082582E-2</v>
-      </c>
-      <c r="AV142" s="6">
-        <f t="shared" si="105"/>
-        <v>5.1043437926684032E-2</v>
-      </c>
-      <c r="AW142" s="6">
-        <f t="shared" si="106"/>
-        <v>0.12692557392316636</v>
-      </c>
-      <c r="AX142" s="6">
-        <f t="shared" si="107"/>
-        <v>6.4933030815253215E-2</v>
-      </c>
-      <c r="AY142" s="6">
-        <f t="shared" si="108"/>
-        <v>6.1938006033734894E-2</v>
-      </c>
-      <c r="AZ142" s="6">
-        <f t="shared" si="109"/>
-        <v>5.1441086308440721E-2</v>
-      </c>
-      <c r="BA142" s="6"/>
-      <c r="BB142" s="6">
-        <f t="shared" si="110"/>
-        <v>8.0268082677332597E-2</v>
-      </c>
-      <c r="BC142" s="6">
-        <f t="shared" si="111"/>
-        <v>6.906977137684378E-2</v>
-      </c>
-      <c r="BD142" s="6">
-        <f t="shared" si="112"/>
-        <v>6.8981359509309087E-2</v>
-      </c>
-      <c r="BE142" s="6">
-        <f t="shared" si="113"/>
-        <v>6.8376117803485473E-2</v>
-      </c>
-      <c r="BF142" s="6">
-        <f t="shared" si="114"/>
-        <v>4.6614864420660408E-2</v>
-      </c>
-      <c r="BG142" s="6">
-        <f t="shared" si="115"/>
-        <v>5.7115341512712914E-2</v>
-      </c>
-      <c r="BH142" s="6">
-        <f t="shared" si="116"/>
-        <v>4.9960402227032692E-2</v>
-      </c>
-      <c r="BI142" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV151" s="6" t="e">
         <f t="shared" si="117"/>
-        <v>6.7937363958207472E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>135</v>
-      </c>
-      <c r="G143" s="16">
-        <f>+G75</f>
-        <v>3.14</v>
-      </c>
-      <c r="H143" s="16">
-        <f t="shared" ref="H143:U143" si="125">+H75</f>
-        <v>3.28</v>
-      </c>
-      <c r="I143" s="16">
-        <f t="shared" si="125"/>
-        <v>11.9</v>
-      </c>
-      <c r="J143" s="16">
-        <f t="shared" si="125"/>
-        <v>1.85</v>
-      </c>
-      <c r="K143" s="16">
-        <f t="shared" si="125"/>
-        <v>9.2100000000000009</v>
-      </c>
-      <c r="L143" s="16">
-        <f t="shared" si="125"/>
-        <v>8.86</v>
-      </c>
-      <c r="M143" s="16">
-        <f t="shared" si="125"/>
-        <v>5.4</v>
-      </c>
-      <c r="N143" s="16"/>
-      <c r="O143" s="16">
-        <f t="shared" si="125"/>
-        <v>6.22</v>
-      </c>
-      <c r="P143" s="16">
-        <f t="shared" si="125"/>
-        <v>8.69</v>
-      </c>
-      <c r="Q143" s="16">
-        <f t="shared" si="125"/>
-        <v>6.02</v>
-      </c>
-      <c r="R143" s="16">
-        <f t="shared" si="125"/>
-        <v>5.57782</v>
-      </c>
-      <c r="S143" s="16">
-        <f>+S75</f>
-        <v>24.360904000000001</v>
-      </c>
-      <c r="T143" s="16">
-        <f t="shared" si="125"/>
-        <v>16.240314999999999</v>
-      </c>
-      <c r="U143" s="16">
-        <f t="shared" si="125"/>
-        <v>18.982374</v>
-      </c>
-      <c r="AT143" s="6">
-        <f t="shared" si="103"/>
-        <v>23.606808811032717</v>
-      </c>
-      <c r="AU143" s="6">
-        <f t="shared" si="104"/>
-        <v>22.855002176412178</v>
-      </c>
-      <c r="AV143" s="6">
-        <f t="shared" si="105"/>
-        <v>24.378702987469477</v>
-      </c>
-      <c r="AW143" s="6">
-        <f t="shared" si="106"/>
-        <v>25.091305095966838</v>
-      </c>
-      <c r="AX143" s="6">
-        <f t="shared" si="107"/>
-        <v>24.244905915671019</v>
-      </c>
-      <c r="AY143" s="6">
-        <f t="shared" si="108"/>
-        <v>24.681610637392112</v>
-      </c>
-      <c r="AZ143" s="6">
-        <f t="shared" si="109"/>
-        <v>23.474254765494376</v>
-      </c>
-      <c r="BA143" s="6"/>
-      <c r="BB143" s="6">
-        <f t="shared" si="110"/>
-        <v>25.417840895180117</v>
-      </c>
-      <c r="BC143" s="6">
-        <f t="shared" si="111"/>
-        <v>25.439850704295221</v>
-      </c>
-      <c r="BD143" s="6">
-        <f t="shared" si="112"/>
-        <v>25.140079746550462</v>
-      </c>
-      <c r="BE143" s="6">
-        <f t="shared" si="113"/>
-        <v>24.362973245143714</v>
-      </c>
-      <c r="BF143" s="6">
-        <f t="shared" si="114"/>
-        <v>23.196459931559115</v>
-      </c>
-      <c r="BG143" s="6">
-        <f t="shared" si="115"/>
-        <v>27.059061842791529</v>
-      </c>
-      <c r="BH143" s="6">
-        <f t="shared" si="116"/>
-        <v>25.219431578930827</v>
-      </c>
-      <c r="BI143" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW151" s="6" t="e">
         <f t="shared" si="117"/>
-        <v>24.583449166706409</v>
-      </c>
-    </row>
-    <row r="144" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>134</v>
-      </c>
-      <c r="G144" s="16">
-        <f>+G74</f>
-        <v>5.58</v>
-      </c>
-      <c r="H144" s="16">
-        <f t="shared" ref="H144:U144" si="126">+H74</f>
-        <v>5.91</v>
-      </c>
-      <c r="I144" s="16">
-        <f t="shared" si="126"/>
-        <v>21.3</v>
-      </c>
-      <c r="J144" s="16">
-        <f t="shared" si="126"/>
-        <v>2.95</v>
-      </c>
-      <c r="K144" s="16">
-        <f t="shared" si="126"/>
-        <v>15.3</v>
-      </c>
-      <c r="L144" s="16">
-        <f t="shared" si="126"/>
-        <v>14.6</v>
-      </c>
-      <c r="M144" s="16">
-        <f t="shared" si="126"/>
-        <v>9.23</v>
-      </c>
-      <c r="N144" s="16"/>
-      <c r="O144" s="16">
-        <f t="shared" si="126"/>
-        <v>8.9600000000000009</v>
-      </c>
-      <c r="P144" s="16">
-        <f t="shared" si="126"/>
-        <v>12.5</v>
-      </c>
-      <c r="Q144" s="16">
-        <f t="shared" si="126"/>
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="R144" s="16">
-        <f t="shared" si="126"/>
-        <v>8.6365309999999997</v>
-      </c>
-      <c r="S144" s="16">
-        <f>+S74</f>
-        <v>39.933576000000002</v>
-      </c>
-      <c r="T144" s="16">
-        <f t="shared" si="126"/>
-        <v>22.317336999999998</v>
-      </c>
-      <c r="U144" s="16">
-        <f t="shared" si="126"/>
-        <v>28.745080000000002</v>
-      </c>
-      <c r="AT144" s="6">
-        <f t="shared" si="103"/>
-        <v>41.950953237440302</v>
-      </c>
-      <c r="AU144" s="6">
-        <f t="shared" si="104"/>
-        <v>41.180811848352434</v>
-      </c>
-      <c r="AV144" s="6">
-        <f t="shared" si="105"/>
-        <v>43.635829717067217</v>
-      </c>
-      <c r="AW144" s="6">
-        <f t="shared" si="106"/>
-        <v>40.010459477352526</v>
-      </c>
-      <c r="AX144" s="6">
-        <f t="shared" si="107"/>
-        <v>40.276553801277586</v>
-      </c>
-      <c r="AY144" s="6">
-        <f t="shared" si="108"/>
-        <v>40.671728589833506</v>
-      </c>
-      <c r="AZ144" s="6">
-        <f t="shared" si="109"/>
-        <v>40.123587312132052</v>
-      </c>
-      <c r="BA144" s="6"/>
-      <c r="BB144" s="6">
-        <f t="shared" si="110"/>
-        <v>36.614767591770722</v>
-      </c>
-      <c r="BC144" s="6">
-        <f t="shared" si="111"/>
-        <v>36.593571208710046</v>
-      </c>
-      <c r="BD144" s="6">
-        <f t="shared" si="112"/>
-        <v>37.71011961982569</v>
-      </c>
-      <c r="BE144" s="6">
-        <f t="shared" si="113"/>
-        <v>37.722904949219277</v>
-      </c>
-      <c r="BF144" s="6">
-        <f t="shared" si="114"/>
-        <v>38.024762775957356</v>
-      </c>
-      <c r="BG144" s="6">
-        <f t="shared" si="115"/>
-        <v>37.184389714695783</v>
-      </c>
-      <c r="BH144" s="6">
-        <f t="shared" si="116"/>
-        <v>38.189879637335828</v>
-      </c>
-      <c r="BI144" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX151" s="6" t="e">
         <f t="shared" si="117"/>
-        <v>39.277879962926455</v>
-      </c>
-    </row>
-    <row r="145" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>91</v>
-      </c>
-      <c r="G145" s="16">
-        <f>+G56/1000</f>
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="H145" s="16">
-        <f t="shared" ref="H145:U145" si="127">+H56/1000</f>
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="I145" s="16">
-        <f t="shared" si="127"/>
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="J145" s="16">
-        <f t="shared" si="127"/>
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="K145" s="16">
-        <f t="shared" si="127"/>
-        <v>0.879</v>
-      </c>
-      <c r="L145" s="16">
-        <f t="shared" si="127"/>
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="M145" s="16">
-        <f t="shared" si="127"/>
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="N145" s="16"/>
-      <c r="O145" s="16">
-        <f t="shared" si="127"/>
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="P145" s="16">
-        <f t="shared" si="127"/>
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="Q145" s="16">
-        <f t="shared" si="127"/>
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="R145" s="16">
-        <f t="shared" si="127"/>
-        <v>0.56229462100000005</v>
-      </c>
-      <c r="S145" s="16">
-        <f>+S56/1000</f>
-        <v>3.0322371050000001</v>
-      </c>
-      <c r="T145" s="16">
-        <f t="shared" si="127"/>
-        <v>1.610700719</v>
-      </c>
-      <c r="U145" s="16">
-        <f t="shared" si="127"/>
-        <v>2.043080035</v>
-      </c>
-      <c r="AT145" s="6">
-        <f t="shared" si="103"/>
-        <v>2.1276200297841585</v>
-      </c>
-      <c r="AU145" s="6">
-        <f t="shared" si="104"/>
-        <v>2.2924682061096364</v>
-      </c>
-      <c r="AV145" s="6">
-        <f t="shared" si="105"/>
-        <v>2.2944661635265393</v>
-      </c>
-      <c r="AW145" s="6">
-        <f t="shared" si="106"/>
-        <v>1.8852385991023732</v>
-      </c>
-      <c r="AX145" s="6">
-        <f t="shared" si="107"/>
-        <v>2.3139275027008495</v>
-      </c>
-      <c r="AY145" s="6">
-        <f t="shared" si="108"/>
-        <v>2.3260885871582859</v>
-      </c>
-      <c r="AZ145" s="6">
-        <f t="shared" si="109"/>
-        <v>2.3387313081177727</v>
-      </c>
-      <c r="BA145" s="6"/>
-      <c r="BB145" s="6">
-        <f t="shared" si="110"/>
-        <v>2.5213517415315327</v>
-      </c>
-      <c r="BC145" s="6">
-        <f t="shared" si="111"/>
-        <v>2.4825078707988895</v>
-      </c>
-      <c r="BD145" s="6">
-        <f t="shared" si="112"/>
-        <v>2.3678447203146362</v>
-      </c>
-      <c r="BE145" s="6">
-        <f t="shared" si="113"/>
-        <v>2.4560076889019768</v>
-      </c>
-      <c r="BF145" s="6">
-        <f t="shared" si="114"/>
-        <v>2.8872970604506016</v>
-      </c>
-      <c r="BG145" s="6">
-        <f t="shared" si="115"/>
-        <v>2.6836948892709152</v>
-      </c>
-      <c r="BH145" s="6">
-        <f t="shared" si="116"/>
-        <v>2.7143768820992622</v>
-      </c>
-      <c r="BI145" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY151" s="6" t="e">
         <f t="shared" si="117"/>
-        <v>2.4065443749905309</v>
-      </c>
-    </row>
-    <row r="146" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>92</v>
-      </c>
-      <c r="G146" s="16">
-        <f>+G57/1000</f>
-        <v>5.5100000000000003E-2</v>
-      </c>
-      <c r="H146" s="16">
-        <f t="shared" ref="H146:U146" si="128">+H57/1000</f>
-        <v>6.0700000000000004E-2</v>
-      </c>
-      <c r="I146" s="16">
-        <f t="shared" si="128"/>
-        <v>0.221</v>
-      </c>
-      <c r="J146" s="16"/>
-      <c r="K146" s="16">
-        <f t="shared" si="128"/>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="L146" s="16">
-        <f t="shared" si="128"/>
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="M146" s="16">
-        <f t="shared" si="128"/>
-        <v>9.4799999999999995E-2</v>
-      </c>
-      <c r="N146" s="16"/>
-      <c r="O146" s="16">
-        <f t="shared" si="128"/>
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="P146" s="16">
-        <f t="shared" si="128"/>
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="Q146" s="16">
-        <f t="shared" si="128"/>
-        <v>0.105</v>
-      </c>
-      <c r="R146" s="16">
-        <f t="shared" si="128"/>
-        <v>0.111475161</v>
-      </c>
-      <c r="S146" s="16">
-        <f>+S57/1000</f>
-        <v>0.56637424199999997</v>
-      </c>
-      <c r="T146" s="16">
-        <f t="shared" si="128"/>
-        <v>0.327981105</v>
-      </c>
-      <c r="U146" s="16">
-        <f t="shared" si="128"/>
-        <v>0.40325905899999998</v>
-      </c>
-      <c r="AT146" s="6">
-        <f t="shared" si="103"/>
-        <v>0.41424686798977794</v>
-      </c>
-      <c r="AU146" s="6">
-        <f t="shared" si="104"/>
-        <v>0.42295690003299369</v>
-      </c>
-      <c r="AV146" s="6">
-        <f t="shared" si="105"/>
-        <v>0.45274734119586174</v>
-      </c>
-      <c r="AW146" s="6">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="AX146" s="6">
-        <f t="shared" si="107"/>
-        <v>0.4606795369427174</v>
-      </c>
-      <c r="AY146" s="6">
-        <f t="shared" si="108"/>
-        <v>0.47078918710149747</v>
-      </c>
-      <c r="AZ146" s="6">
-        <f t="shared" si="109"/>
-        <v>0.41210358366090116</v>
-      </c>
-      <c r="BA146" s="6"/>
-      <c r="BB146" s="6">
-        <f t="shared" si="110"/>
-        <v>0.48220341248090898</v>
-      </c>
-      <c r="BC146" s="6">
-        <f t="shared" si="111"/>
-        <v>0.41863045462764287</v>
-      </c>
-      <c r="BD146" s="6">
-        <f t="shared" si="112"/>
-        <v>0.438489763021229</v>
-      </c>
-      <c r="BE146" s="6">
-        <f t="shared" si="113"/>
-        <v>0.48690462670740325</v>
-      </c>
-      <c r="BF146" s="6">
-        <f t="shared" si="114"/>
-        <v>0.53930171929663051</v>
-      </c>
-      <c r="BG146" s="6">
-        <f t="shared" si="115"/>
-        <v>0.54647098923032611</v>
-      </c>
-      <c r="BH146" s="6">
-        <f t="shared" si="116"/>
-        <v>0.53575829066662206</v>
-      </c>
-      <c r="BI146" s="6">
-        <f t="shared" si="117"/>
-        <v>0.43437733378246512</v>
-      </c>
-    </row>
-    <row r="147" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>90</v>
-      </c>
-      <c r="G147" s="16">
-        <f>+G55/1000</f>
-        <v>0.16</v>
-      </c>
-      <c r="H147" s="16">
-        <f t="shared" ref="H147:U147" si="129">+H55/1000</f>
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="I147" s="16">
-        <f t="shared" si="129"/>
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="J147" s="16">
-        <f t="shared" si="129"/>
-        <v>9.5400000000000013E-2</v>
-      </c>
-      <c r="K147" s="16">
-        <f t="shared" si="129"/>
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="L147" s="16">
-        <f t="shared" si="129"/>
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="M147" s="16">
-        <f t="shared" si="129"/>
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="N147" s="16"/>
-      <c r="O147" s="16">
-        <f t="shared" si="129"/>
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="P147" s="16">
-        <f t="shared" si="129"/>
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="Q147" s="16">
-        <f t="shared" si="129"/>
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="R147" s="16">
-        <f t="shared" si="129"/>
-        <v>0.26243027000000002</v>
-      </c>
-      <c r="S147" s="16">
-        <f>+S55/1000</f>
-        <v>1.370616426</v>
-      </c>
-      <c r="T147" s="16">
-        <f t="shared" si="129"/>
-        <v>0.77935944400000001</v>
-      </c>
-      <c r="U147" s="16">
-        <f t="shared" si="129"/>
-        <v>0.93093055499999999</v>
-      </c>
-      <c r="AT147" s="6">
-        <f t="shared" si="103"/>
-        <v>1.2028947164857435</v>
-      </c>
-      <c r="AU147" s="6">
-        <f t="shared" si="104"/>
-        <v>1.2124299935047922</v>
-      </c>
-      <c r="AV147" s="6">
-        <f t="shared" si="105"/>
-        <v>1.2414700849081095</v>
-      </c>
-      <c r="AW147" s="6">
-        <f t="shared" si="106"/>
-        <v>1.2938975708947225</v>
-      </c>
-      <c r="AX147" s="6">
-        <f t="shared" si="107"/>
-        <v>1.2425185224969293</v>
-      </c>
-      <c r="AY147" s="6">
-        <f t="shared" si="108"/>
-        <v>1.2981524330727681</v>
-      </c>
-      <c r="AZ147" s="6">
-        <f t="shared" si="109"/>
-        <v>1.3258606858288489</v>
-      </c>
-      <c r="BA147" s="6"/>
-      <c r="BB147" s="6">
-        <f t="shared" si="110"/>
-        <v>1.2382002879806393</v>
-      </c>
-      <c r="BC147" s="6">
-        <f t="shared" si="111"/>
-        <v>1.2617463352763223</v>
-      </c>
-      <c r="BD147" s="6">
-        <f t="shared" si="112"/>
-        <v>1.1526016627986593</v>
-      </c>
-      <c r="BE147" s="6">
-        <f t="shared" si="113"/>
-        <v>1.1462509809792789</v>
-      </c>
-      <c r="BF147" s="6">
-        <f t="shared" si="114"/>
-        <v>1.3051013627099288</v>
-      </c>
-      <c r="BG147" s="6">
-        <f t="shared" si="115"/>
-        <v>1.2985422630632242</v>
-      </c>
-      <c r="BH147" s="6">
-        <f t="shared" si="116"/>
-        <v>1.236807336983172</v>
-      </c>
-      <c r="BI147" s="6">
-        <f t="shared" si="117"/>
-        <v>1.2468910169273673</v>
-      </c>
-    </row>
-    <row r="148" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>76</v>
-      </c>
-      <c r="G148" s="16">
-        <f>+G44/1000</f>
-        <v>1.571659E-3</v>
-      </c>
-      <c r="H148" s="16">
-        <f t="shared" ref="H148:U148" si="130">+H44/1000</f>
-        <v>1.689409E-3</v>
-      </c>
-      <c r="I148" s="16">
-        <f t="shared" si="130"/>
-        <v>5.292288E-3</v>
-      </c>
-      <c r="J148" s="16">
-        <f t="shared" si="130"/>
-        <v>7.8400799999999999E-4</v>
-      </c>
-      <c r="K148" s="16">
-        <f t="shared" si="130"/>
-        <v>4.492401E-3</v>
-      </c>
-      <c r="L148" s="16">
-        <f t="shared" si="130"/>
-        <v>3.5401310000000002E-3</v>
-      </c>
-      <c r="M148" s="16">
-        <f t="shared" si="130"/>
-        <v>2.080971E-3</v>
-      </c>
-      <c r="N148" s="16"/>
-      <c r="O148" s="16">
-        <f t="shared" si="130"/>
-        <v>2.9257990000000002E-3</v>
-      </c>
-      <c r="P148" s="16">
-        <f t="shared" si="130"/>
-        <v>4.1402979999999997E-3</v>
-      </c>
-      <c r="Q148" s="16">
-        <f t="shared" si="130"/>
-        <v>2.789424E-3</v>
-      </c>
-      <c r="R148" s="16">
-        <f t="shared" si="130"/>
-        <v>2.8435139999999997E-3</v>
-      </c>
-      <c r="S148" s="16">
-        <f>+S44/1000</f>
-        <v>1.5437760999999999E-2</v>
-      </c>
-      <c r="T148" s="16">
-        <f t="shared" si="130"/>
-        <v>7.6783299999999997E-3</v>
-      </c>
-      <c r="U148" s="16">
-        <f t="shared" si="130"/>
-        <v>9.0402799999999995E-3</v>
-      </c>
-      <c r="AT148" s="6">
-        <f t="shared" si="103"/>
-        <v>1.181587692010792E-2</v>
-      </c>
-      <c r="AU148" s="6">
-        <f t="shared" si="104"/>
-        <v>1.1771782430442171E-2</v>
-      </c>
-      <c r="AV148" s="6">
-        <f t="shared" si="105"/>
-        <v>1.0841942628247805E-2</v>
-      </c>
-      <c r="AW148" s="6">
-        <f t="shared" si="106"/>
-        <v>1.0633396716583117E-2</v>
-      </c>
-      <c r="AX148" s="6">
-        <f t="shared" si="107"/>
-        <v>1.1826041213948577E-2</v>
-      </c>
-      <c r="AY148" s="6">
-        <f t="shared" si="108"/>
-        <v>9.8618662468805407E-3</v>
-      </c>
-      <c r="AZ148" s="6">
-        <f t="shared" si="109"/>
-        <v>9.0461561877047385E-3</v>
-      </c>
-      <c r="BA148" s="6"/>
-      <c r="BB148" s="6">
-        <f t="shared" si="110"/>
-        <v>1.1956188661298569E-2</v>
-      </c>
-      <c r="BC148" s="6">
-        <f t="shared" si="111"/>
-        <v>1.2120663175062382E-2</v>
-      </c>
-      <c r="BD148" s="6">
-        <f t="shared" si="112"/>
-        <v>1.1648893987864083E-2</v>
-      </c>
-      <c r="BE148" s="6">
-        <f t="shared" si="113"/>
-        <v>1.2419987648255335E-2</v>
-      </c>
-      <c r="BF148" s="6">
-        <f t="shared" si="114"/>
-        <v>1.469984055064155E-2</v>
-      </c>
-      <c r="BG148" s="6">
-        <f t="shared" si="115"/>
-        <v>1.2793372931458626E-2</v>
-      </c>
-      <c r="BH148" s="6">
-        <f t="shared" si="116"/>
-        <v>1.2010653826248328E-2</v>
-      </c>
-      <c r="BI148" s="6">
-        <f t="shared" si="117"/>
-        <v>1.167476165176741E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>136</v>
-      </c>
-      <c r="G149" s="16">
-        <f>+G76</f>
-        <v>2.13</v>
-      </c>
-      <c r="H149" s="16">
-        <f t="shared" ref="H149:U149" si="131">+H76</f>
-        <v>2.71</v>
-      </c>
-      <c r="I149" s="16">
-        <f t="shared" si="131"/>
-        <v>7.45</v>
-      </c>
-      <c r="J149" s="16">
-        <f t="shared" si="131"/>
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="K149" s="16">
-        <f t="shared" si="131"/>
-        <v>6.45</v>
-      </c>
-      <c r="L149" s="16">
-        <f t="shared" si="131"/>
-        <v>5.71</v>
-      </c>
-      <c r="M149" s="16">
-        <f t="shared" si="131"/>
-        <v>4.62</v>
-      </c>
-      <c r="N149" s="16"/>
-      <c r="O149" s="16">
-        <f t="shared" si="131"/>
-        <v>4.6100000000000003</v>
-      </c>
-      <c r="P149" s="16">
-        <f t="shared" si="131"/>
-        <v>6.95</v>
-      </c>
-      <c r="Q149" s="16">
-        <f t="shared" si="131"/>
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="R149" s="16">
-        <f t="shared" si="131"/>
-        <v>4.6566840000000003</v>
-      </c>
-      <c r="S149" s="16">
-        <f>+S76</f>
-        <v>23.339594000000002</v>
-      </c>
-      <c r="T149" s="16">
-        <f t="shared" si="131"/>
-        <v>10.653791999999999</v>
-      </c>
-      <c r="U149" s="16">
-        <f t="shared" si="131"/>
-        <v>14.930723</v>
-      </c>
-      <c r="AT149" s="6">
-        <f t="shared" si="103"/>
-        <v>16.013535913216458</v>
-      </c>
-      <c r="AU149" s="6">
-        <f t="shared" si="104"/>
-        <v>18.88324874941372</v>
-      </c>
-      <c r="AV149" s="6">
-        <f t="shared" si="105"/>
-        <v>15.262297248457783</v>
-      </c>
-      <c r="AW149" s="6">
-        <f t="shared" si="106"/>
-        <v>12.410023871789004</v>
-      </c>
-      <c r="AX149" s="6">
-        <f t="shared" si="107"/>
-        <v>16.979331504460159</v>
-      </c>
-      <c r="AY149" s="6">
-        <f t="shared" si="108"/>
-        <v>15.906545907393788</v>
-      </c>
-      <c r="AZ149" s="6">
-        <f t="shared" si="109"/>
-        <v>20.083529077145187</v>
-      </c>
-      <c r="BA149" s="6"/>
-      <c r="BB149" s="6">
-        <f t="shared" si="110"/>
-        <v>18.838624843533818</v>
-      </c>
-      <c r="BC149" s="6">
-        <f t="shared" si="111"/>
-        <v>20.346025592042785</v>
-      </c>
-      <c r="BD149" s="6">
-        <f t="shared" si="112"/>
-        <v>19.91996352010726</v>
-      </c>
-      <c r="BE149" s="6">
-        <f t="shared" si="113"/>
-        <v>20.339607176834104</v>
-      </c>
-      <c r="BF149" s="6">
-        <f t="shared" si="114"/>
-        <v>22.223968250105067</v>
-      </c>
-      <c r="BG149" s="6">
-        <f t="shared" si="115"/>
-        <v>17.75098676277139</v>
-      </c>
-      <c r="BH149" s="6">
-        <f t="shared" si="116"/>
-        <v>19.836525564319238</v>
-      </c>
-      <c r="BI149" s="6">
-        <f t="shared" si="117"/>
-        <v>18.199586712970699</v>
-      </c>
-    </row>
-    <row r="150" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>94</v>
-      </c>
-      <c r="G150" s="16">
-        <f>+G58/1000</f>
-        <v>5.1700000000000003E-2</v>
-      </c>
-      <c r="H150" s="16">
-        <f t="shared" ref="H150:U150" si="132">+H58/1000</f>
-        <v>7.1800000000000003E-2</v>
-      </c>
-      <c r="I150" s="16">
-        <f t="shared" si="132"/>
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="J150" s="16">
-        <f t="shared" si="132"/>
-        <v>2.06E-2</v>
-      </c>
-      <c r="K150" s="16">
-        <f t="shared" si="132"/>
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="L150" s="16">
-        <f t="shared" si="132"/>
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="M150" s="16">
-        <f t="shared" si="132"/>
-        <v>0.124</v>
-      </c>
-      <c r="N150" s="16"/>
-      <c r="O150" s="16">
-        <f t="shared" si="132"/>
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="P150" s="16">
-        <f t="shared" si="132"/>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="Q150" s="16">
-        <f t="shared" si="132"/>
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="R150" s="16">
-        <f t="shared" si="132"/>
-        <v>0.115493766</v>
-      </c>
-      <c r="S150" s="16">
-        <f>+S58/1000</f>
-        <v>0.61708053299999999</v>
-      </c>
-      <c r="T150" s="16">
-        <f t="shared" si="132"/>
-        <v>0.26177588200000002</v>
-      </c>
-      <c r="U150" s="16">
-        <f t="shared" si="132"/>
-        <v>0.38808580100000001</v>
-      </c>
-      <c r="AT150" s="6">
-        <f t="shared" si="103"/>
-        <v>0.38868535526445586</v>
-      </c>
-      <c r="AU150" s="6">
-        <f t="shared" si="104"/>
-        <v>0.5003015720324373</v>
-      </c>
-      <c r="AV150" s="6">
-        <f t="shared" si="105"/>
-        <v>0.35236444654157562</v>
-      </c>
-      <c r="AW150" s="6">
-        <f t="shared" si="106"/>
-        <v>0.27939507296049559</v>
-      </c>
-      <c r="AX150" s="6">
-        <f t="shared" si="107"/>
-        <v>0.43435499197456218</v>
-      </c>
-      <c r="AY150" s="6">
-        <f t="shared" si="108"/>
-        <v>0.39836008139357471</v>
-      </c>
-      <c r="AZ150" s="6">
-        <f t="shared" si="109"/>
-        <v>0.53903844276320412</v>
-      </c>
-      <c r="BA150" s="6"/>
-      <c r="BB150" s="6">
-        <f t="shared" si="110"/>
-        <v>0.47403047328631737</v>
-      </c>
-      <c r="BC150" s="6">
-        <f t="shared" si="111"/>
-        <v>0.51230999692194057</v>
-      </c>
-      <c r="BD150" s="6">
-        <f t="shared" si="112"/>
-        <v>0.48442678581392923</v>
-      </c>
-      <c r="BE150" s="6">
-        <f t="shared" si="113"/>
-        <v>0.50445721286073919</v>
-      </c>
-      <c r="BF150" s="6">
-        <f t="shared" si="114"/>
-        <v>0.58758426445421075</v>
-      </c>
-      <c r="BG150" s="6">
-        <f t="shared" si="115"/>
-        <v>0.43616209291441077</v>
-      </c>
-      <c r="BH150" s="6">
-        <f t="shared" si="116"/>
-        <v>0.51559954013518361</v>
-      </c>
-      <c r="BI150" s="6">
-        <f t="shared" si="117"/>
-        <v>0.4576478806655026</v>
-      </c>
-    </row>
-    <row r="151" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="G151" s="2">
-        <f>SUM(G133:G150)</f>
-        <v>13.301247217</v>
-      </c>
-      <c r="H151" s="2">
-        <f t="shared" ref="H151:U151" si="133">SUM(H133:H150)</f>
-        <v>14.351344072</v>
-      </c>
-      <c r="I151" s="2">
-        <f t="shared" si="133"/>
-        <v>48.813097259999992</v>
-      </c>
-      <c r="J151" s="2">
-        <f t="shared" si="133"/>
-        <v>7.3730720380000001</v>
-      </c>
-      <c r="K151" s="2">
-        <f t="shared" si="133"/>
-        <v>37.987361271000005</v>
-      </c>
-      <c r="L151" s="2">
-        <f t="shared" si="133"/>
-        <v>35.897171097000005</v>
-      </c>
-      <c r="M151" s="2">
-        <f t="shared" si="133"/>
-        <v>23.003925168000002</v>
-      </c>
-      <c r="N151" s="2"/>
-      <c r="O151" s="2">
-        <f t="shared" si="133"/>
-        <v>24.471000608000001</v>
-      </c>
-      <c r="P151" s="2">
-        <f t="shared" si="133"/>
-        <v>34.159005494999995</v>
-      </c>
-      <c r="Q151" s="2">
-        <f t="shared" si="133"/>
-        <v>23.945826985</v>
-      </c>
-      <c r="R151" s="2">
-        <f t="shared" si="133"/>
-        <v>22.894660450000003</v>
-      </c>
-      <c r="S151" s="2">
-        <f>SUM(S133:S150)</f>
-        <v>105.01992145300001</v>
-      </c>
-      <c r="T151" s="2">
-        <f t="shared" si="133"/>
-        <v>60.01802684199999</v>
-      </c>
-      <c r="U151" s="2">
-        <f t="shared" si="133"/>
-        <v>75.268841570000021</v>
-      </c>
-      <c r="AT151" s="6">
-        <f t="shared" ref="AT151:AY151" si="134">SUM(AT133:AT150)</f>
-        <v>99.999999999999986</v>
-      </c>
-      <c r="AU151" s="6">
-        <f t="shared" si="134"/>
-        <v>100.00000000000003</v>
-      </c>
-      <c r="AV151" s="6">
-        <f t="shared" si="134"/>
-        <v>100.00000000000001</v>
-      </c>
-      <c r="AW151" s="6">
-        <f t="shared" si="134"/>
-        <v>100.00000000000001</v>
-      </c>
-      <c r="AX151" s="6">
-        <f t="shared" si="134"/>
-        <v>100</v>
-      </c>
-      <c r="AY151" s="6">
-        <f t="shared" si="134"/>
-        <v>100</v>
-      </c>
-      <c r="AZ151" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ151" s="6" t="e">
         <f>SUM(AZ133:AZ150)</f>
-        <v>100</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="BA151" s="6"/>
-      <c r="BB151" s="6">
-        <f t="shared" ref="BB151:BH151" si="135">SUM(BB133:BB150)</f>
-        <v>100</v>
-      </c>
-      <c r="BC151" s="6">
-        <f t="shared" si="135"/>
-        <v>100.00000000000003</v>
-      </c>
-      <c r="BD151" s="6">
-        <f t="shared" si="135"/>
-        <v>99.999999999999986</v>
-      </c>
-      <c r="BE151" s="6">
-        <f t="shared" si="135"/>
-        <v>99.999999999999986</v>
-      </c>
-      <c r="BF151" s="6">
+      <c r="BB151" s="6" t="e">
+        <f t="shared" ref="BB151:BH151" si="118">SUM(BB133:BB150)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC151" s="6" t="e">
+        <f t="shared" si="118"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD151" s="6" t="e">
+        <f t="shared" si="118"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE151" s="6" t="e">
+        <f t="shared" si="118"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF151" s="6" t="e">
         <f>SUM(BF133:BF150)</f>
-        <v>100.00000000000001</v>
-      </c>
-      <c r="BG151" s="6">
-        <f t="shared" si="135"/>
-        <v>100</v>
-      </c>
-      <c r="BH151" s="6">
-        <f t="shared" si="135"/>
-        <v>99.999999999999972</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG151" s="6" t="e">
+        <f t="shared" si="118"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH151" s="6" t="e">
+        <f t="shared" si="118"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="207" spans="7:21" x14ac:dyDescent="0.25">
@@ -19723,31 +18988,31 @@
         <v>236</v>
       </c>
       <c r="O207" s="1" t="str">
-        <f t="shared" ref="O207:U207" si="136">+O7</f>
+        <f t="shared" ref="O207:U207" si="119">+O7</f>
         <v>Beuningen</v>
       </c>
       <c r="P207" s="1" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="119"/>
         <v>Beuningen</v>
       </c>
       <c r="Q207" s="1" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="119"/>
         <v>Beuningen</v>
       </c>
       <c r="R207" s="1" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="119"/>
         <v>Beuningen</v>
       </c>
       <c r="S207" s="1" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="119"/>
         <v>Beuningen</v>
       </c>
       <c r="T207" s="1" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="119"/>
         <v>Beuningen</v>
       </c>
       <c r="U207" s="1" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="119"/>
         <v>Beuningen</v>
       </c>
     </row>
@@ -19761,61 +19026,61 @@
         <v>692967</v>
       </c>
       <c r="H209" s="1">
-        <f t="shared" ref="H209:U209" si="137">+H5</f>
+        <f t="shared" ref="H209:U209" si="120">+H5</f>
         <v>692968</v>
       </c>
       <c r="I209" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="120"/>
         <v>692969</v>
       </c>
       <c r="J209" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="120"/>
         <v>692970</v>
       </c>
       <c r="K209" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="120"/>
         <v>692971</v>
       </c>
       <c r="L209" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="120"/>
         <v>692972</v>
       </c>
       <c r="M209" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="120"/>
         <v>692973</v>
       </c>
       <c r="O209" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="120"/>
         <v>693823</v>
       </c>
       <c r="P209" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="120"/>
         <v>693825</v>
       </c>
       <c r="Q209" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="120"/>
         <v>693826</v>
       </c>
       <c r="R209" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="120"/>
         <v>693827</v>
       </c>
       <c r="S209" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="120"/>
         <v>693824</v>
       </c>
       <c r="T209" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="120"/>
         <v>693828</v>
       </c>
       <c r="U209" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="120"/>
         <v>693829</v>
       </c>
     </row>
     <row r="210" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E210" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G210" s="1">
         <v>1</v>
@@ -19862,115 +19127,115 @@
     </row>
     <row r="211" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E211" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M211" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O211" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P211" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Q211" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="R211" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="S211" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="T211" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="U211" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="212" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E212" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G212" s="1" t="str">
         <f>+G10</f>
         <v>koe</v>
       </c>
       <c r="H212" s="1" t="str">
-        <f t="shared" ref="H212:U212" si="138">+H10</f>
+        <f t="shared" ref="H212:U212" si="121">+H10</f>
         <v>koe</v>
       </c>
       <c r="I212" s="1" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="121"/>
         <v>koe</v>
       </c>
       <c r="J212" s="1" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="121"/>
         <v>koe</v>
       </c>
       <c r="K212" s="1" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="121"/>
         <v>koe</v>
       </c>
       <c r="L212" s="1" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="121"/>
         <v>koe</v>
       </c>
       <c r="M212" s="1" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="121"/>
         <v>koe</v>
       </c>
       <c r="O212" s="1" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="121"/>
         <v>koe</v>
       </c>
       <c r="P212" s="1" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="121"/>
         <v>koe</v>
       </c>
       <c r="Q212" s="1" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="121"/>
         <v>koe</v>
       </c>
       <c r="R212" s="1" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="121"/>
         <v>koe</v>
       </c>
       <c r="S212" s="1" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="121"/>
         <v>stier</v>
       </c>
       <c r="T212" s="1" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="121"/>
         <v>stier</v>
       </c>
       <c r="U212" s="1" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="121"/>
         <v>stier</v>
       </c>
     </row>
     <row r="214" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E214" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F214" t="s">
         <v>142</v>
@@ -19980,62 +19245,62 @@
         <v>0.46487738429999997</v>
       </c>
       <c r="H214" s="2">
-        <f t="shared" ref="H214:U214" si="139">+H36</f>
+        <f t="shared" ref="H214:U214" si="122">+H36</f>
         <v>0.39102161000000002</v>
       </c>
       <c r="I214" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="122"/>
         <v>2.1199885581999993</v>
       </c>
       <c r="J214" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="122"/>
         <v>0.31332968169999997</v>
       </c>
       <c r="K214" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="122"/>
         <v>2.8104381923000004</v>
       </c>
       <c r="L214" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="122"/>
         <v>2.3418074017000001</v>
       </c>
       <c r="M214" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="122"/>
         <v>0.78518413959999989</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="122"/>
         <v>1.3251862468</v>
       </c>
       <c r="P214" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="122"/>
         <v>1.6679461944999998</v>
       </c>
       <c r="Q214" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="122"/>
         <v>0.78981644539999996</v>
       </c>
       <c r="R214" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="122"/>
         <v>0.82593521289999994</v>
       </c>
       <c r="S214" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="122"/>
         <v>2.1340765209999999</v>
       </c>
       <c r="T214" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="122"/>
         <v>2.3846994058000002</v>
       </c>
       <c r="U214" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="122"/>
         <v>2.2661237830000003</v>
       </c>
     </row>
     <row r="215" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E215" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F215" t="s">
         <v>143</v>
@@ -20045,62 +19310,62 @@
         <v>0.54790064689999995</v>
       </c>
       <c r="H215" s="2">
-        <f t="shared" ref="H215:U215" si="140">+H37</f>
+        <f t="shared" ref="H215:U215" si="123">+H37</f>
         <v>0.45373135639999995</v>
       </c>
       <c r="I215" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="123"/>
         <v>2.1506710516999994</v>
       </c>
       <c r="J215" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="123"/>
         <v>0.360453721</v>
       </c>
       <c r="K215" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="123"/>
         <v>2.8288028423</v>
       </c>
       <c r="L215" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="123"/>
         <v>2.3484398097000003</v>
       </c>
       <c r="M215" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="123"/>
         <v>0.79113364389999996</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="123"/>
         <v>1.3295603867999999</v>
       </c>
       <c r="P215" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="123"/>
         <v>1.6714983205999996</v>
       </c>
       <c r="Q215" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="123"/>
         <v>0.93428701540000003</v>
       </c>
       <c r="R215" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="123"/>
         <v>0.83543171289999996</v>
       </c>
       <c r="S215" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="123"/>
         <v>2.5549231209999999</v>
       </c>
       <c r="T215" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="123"/>
         <v>2.4000836257999998</v>
       </c>
       <c r="U215" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="123"/>
         <v>2.275527023</v>
       </c>
     </row>
     <row r="216" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E216" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F216" t="s">
         <v>142</v>
@@ -20110,62 +19375,62 @@
         <v>1.2111800810000002</v>
       </c>
       <c r="H216" s="2">
-        <f t="shared" ref="H216:U216" si="141">+H63</f>
+        <f t="shared" ref="H216:U216" si="124">+H63</f>
         <v>1.1646155614999998</v>
       </c>
       <c r="I216" s="2">
-        <f t="shared" si="141"/>
+        <f t="shared" si="124"/>
         <v>2.8948316287</v>
       </c>
       <c r="J216" s="2">
-        <f t="shared" si="141"/>
+        <f t="shared" si="124"/>
         <v>1.009340415</v>
       </c>
       <c r="K216" s="2">
-        <f t="shared" si="141"/>
+        <f t="shared" si="124"/>
         <v>2.8119159501000004</v>
       </c>
       <c r="L216" s="2">
-        <f t="shared" si="141"/>
+        <f t="shared" si="124"/>
         <v>2.5312081603999999</v>
       </c>
       <c r="M216" s="2">
-        <f t="shared" si="141"/>
+        <f t="shared" si="124"/>
         <v>1.3585787826</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" s="2">
-        <f t="shared" si="141"/>
+        <f t="shared" si="124"/>
         <v>2.1925284544000005</v>
       </c>
       <c r="P216" s="2">
-        <f t="shared" si="141"/>
+        <f t="shared" si="124"/>
         <v>2.6640429492000002</v>
       </c>
       <c r="Q216" s="2">
-        <f t="shared" si="141"/>
+        <f t="shared" si="124"/>
         <v>1.8593622944000001</v>
       </c>
       <c r="R216" s="2">
-        <f t="shared" si="141"/>
+        <f t="shared" si="124"/>
         <v>1.77066192508</v>
       </c>
       <c r="S216" s="2">
-        <f t="shared" si="141"/>
+        <f t="shared" si="124"/>
         <v>5.8778616543400011</v>
       </c>
       <c r="T216" s="2">
-        <f t="shared" si="141"/>
+        <f t="shared" si="124"/>
         <v>3.9810155901500002</v>
       </c>
       <c r="U216" s="2">
-        <f t="shared" si="141"/>
+        <f t="shared" si="124"/>
         <v>4.4084816621400007</v>
       </c>
     </row>
     <row r="217" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E217" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F217" t="s">
         <v>143</v>
@@ -20175,62 +19440,62 @@
         <v>1.2136940810000003</v>
       </c>
       <c r="H217" s="2">
-        <f t="shared" ref="H217:U217" si="142">+H64</f>
+        <f t="shared" ref="H217:U217" si="125">+H64</f>
         <v>1.1663465614999999</v>
       </c>
       <c r="I217" s="2">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>2.8948316287</v>
       </c>
       <c r="J217" s="2">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>1.012601415</v>
       </c>
       <c r="K217" s="2">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>2.8119159501000004</v>
       </c>
       <c r="L217" s="2">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>2.5312081603999999</v>
       </c>
       <c r="M217" s="2">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>1.3585787826</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" s="2">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>2.1925284544000005</v>
       </c>
       <c r="P217" s="2">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>2.6640429492000002</v>
       </c>
       <c r="Q217" s="2">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>1.8593622944000001</v>
       </c>
       <c r="R217" s="2">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>1.77066192508</v>
       </c>
       <c r="S217" s="2">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>5.8778616543400011</v>
       </c>
       <c r="T217" s="2">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>3.9810155901500002</v>
       </c>
       <c r="U217" s="2">
-        <f t="shared" si="142"/>
+        <f t="shared" si="125"/>
         <v>4.4084816621400007</v>
       </c>
     </row>
     <row r="218" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E218" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F218" t="s">
         <v>142</v>
@@ -20240,62 +19505,62 @@
         <v>1.6760574653000002</v>
       </c>
       <c r="H218" s="2">
-        <f t="shared" ref="H218:U218" si="143">+H66</f>
+        <f t="shared" ref="H218:U218" si="126">+H66</f>
         <v>1.5556371714999999</v>
       </c>
       <c r="I218" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="126"/>
         <v>5.0148201868999998</v>
       </c>
       <c r="J218" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="126"/>
         <v>1.3226700967</v>
       </c>
       <c r="K218" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="126"/>
         <v>5.6223541424000008</v>
       </c>
       <c r="L218" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="126"/>
         <v>4.8730155621</v>
       </c>
       <c r="M218" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="126"/>
         <v>2.1437629221999996</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="126"/>
         <v>3.5177147012000005</v>
       </c>
       <c r="P218" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="126"/>
         <v>4.3319891436999995</v>
       </c>
       <c r="Q218" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="126"/>
         <v>2.6491787398</v>
       </c>
       <c r="R218" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="126"/>
         <v>2.5965971379799999</v>
       </c>
       <c r="S218" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="126"/>
         <v>8.011938175340001</v>
       </c>
       <c r="T218" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="126"/>
         <v>6.3657149959500003</v>
       </c>
       <c r="U218" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="126"/>
         <v>6.674605445140001</v>
       </c>
     </row>
     <row r="219" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E219" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F219" t="s">
         <v>143</v>
@@ -20305,56 +19570,56 @@
         <v>1.7615947279000004</v>
       </c>
       <c r="H219" s="2">
-        <f t="shared" ref="H219:U219" si="144">+H67</f>
+        <f t="shared" ref="H219:U219" si="127">+H67</f>
         <v>1.6200779178999998</v>
       </c>
       <c r="I219" s="25">
-        <f t="shared" si="144"/>
+        <f t="shared" si="127"/>
         <v>5.0455026803999994</v>
       </c>
       <c r="J219" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="127"/>
         <v>1.3730551360000001</v>
       </c>
       <c r="K219" s="25">
-        <f t="shared" si="144"/>
+        <f t="shared" si="127"/>
         <v>5.6407187924000004</v>
       </c>
       <c r="L219" s="25">
-        <f t="shared" si="144"/>
+        <f t="shared" si="127"/>
         <v>4.8796479701000006</v>
       </c>
       <c r="M219" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="127"/>
         <v>2.1497124264999998</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="127"/>
         <v>3.5220888412000004</v>
       </c>
       <c r="P219" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="127"/>
         <v>4.3355412698000002</v>
       </c>
       <c r="Q219" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="127"/>
         <v>2.7936493098000001</v>
       </c>
       <c r="R219" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="127"/>
         <v>2.6060936379799999</v>
       </c>
       <c r="S219" s="25">
-        <f t="shared" si="144"/>
+        <f t="shared" si="127"/>
         <v>8.43278477534</v>
       </c>
       <c r="T219" s="25">
-        <f t="shared" si="144"/>
+        <f t="shared" si="127"/>
         <v>6.38109921595</v>
       </c>
       <c r="U219" s="25">
-        <f t="shared" si="144"/>
+        <f t="shared" si="127"/>
         <v>6.6840086851400002</v>
       </c>
     </row>
@@ -20383,125 +19648,125 @@
         <v>142</v>
       </c>
       <c r="G221" s="23">
-        <f t="shared" ref="G221:M222" si="145">+G77</f>
+        <f t="shared" ref="G221:M222" si="128">+G77</f>
         <v>10.850000000000001</v>
       </c>
       <c r="H221" s="23">
-        <f t="shared" si="145"/>
+        <f t="shared" si="128"/>
         <v>11.899999999999999</v>
       </c>
       <c r="I221" s="23">
-        <f t="shared" si="145"/>
+        <f t="shared" si="128"/>
         <v>40.650000000000006</v>
       </c>
       <c r="J221" s="23">
-        <f t="shared" si="145"/>
+        <f t="shared" si="128"/>
         <v>5.7150000000000007</v>
       </c>
       <c r="K221" s="23">
-        <f t="shared" si="145"/>
+        <f t="shared" si="128"/>
         <v>30.96</v>
       </c>
       <c r="L221" s="23">
-        <f t="shared" si="145"/>
+        <f t="shared" si="128"/>
         <v>29.17</v>
       </c>
       <c r="M221" s="23">
-        <f t="shared" si="145"/>
+        <f t="shared" si="128"/>
         <v>19.25</v>
       </c>
       <c r="N221" s="23"/>
       <c r="O221" s="23">
-        <f t="shared" ref="O221:U222" si="146">+O77</f>
+        <f t="shared" ref="O221:U222" si="129">+O77</f>
         <v>19.79</v>
       </c>
       <c r="P221" s="23">
-        <f t="shared" si="146"/>
+        <f t="shared" si="129"/>
         <v>28.139999999999997</v>
       </c>
       <c r="Q221" s="23">
-        <f t="shared" si="146"/>
+        <f t="shared" si="129"/>
         <v>19.82</v>
       </c>
       <c r="R221" s="23">
-        <f t="shared" si="146"/>
+        <f t="shared" si="129"/>
         <v>18.899707999999997</v>
       </c>
       <c r="S221" s="23">
-        <f t="shared" si="146"/>
+        <f t="shared" si="129"/>
         <v>87.68151300000001</v>
       </c>
       <c r="T221" s="23">
-        <f t="shared" si="146"/>
+        <f t="shared" si="129"/>
         <v>49.249825000000001</v>
       </c>
       <c r="U221" s="23">
-        <f t="shared" si="146"/>
+        <f t="shared" si="129"/>
         <v>62.694276000000002</v>
       </c>
     </row>
     <row r="222" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E222" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F222" t="s">
         <v>143</v>
       </c>
       <c r="G222" s="23">
-        <f t="shared" si="145"/>
+        <f t="shared" si="128"/>
         <v>11.801000000000002</v>
       </c>
       <c r="H222" s="23">
-        <f t="shared" si="145"/>
+        <f t="shared" si="128"/>
         <v>12.576999999999998</v>
       </c>
       <c r="I222" s="23">
-        <f t="shared" si="145"/>
+        <f t="shared" si="128"/>
         <v>41.410000000000004</v>
       </c>
       <c r="J222" s="23">
-        <f t="shared" si="145"/>
+        <f t="shared" si="128"/>
         <v>6.48</v>
       </c>
       <c r="K222" s="23">
-        <f t="shared" si="145"/>
+        <f t="shared" si="128"/>
         <v>31.911000000000001</v>
       </c>
       <c r="L222" s="23">
-        <f t="shared" si="145"/>
+        <f t="shared" si="128"/>
         <v>29.802</v>
       </c>
       <c r="M222" s="23">
-        <f t="shared" si="145"/>
+        <f t="shared" si="128"/>
         <v>19.928000000000001</v>
       </c>
       <c r="N222" s="23"/>
       <c r="O222" s="23">
-        <f t="shared" si="146"/>
+        <f t="shared" si="129"/>
         <v>20.160699999999999</v>
       </c>
       <c r="P222" s="23">
-        <f t="shared" si="146"/>
+        <f t="shared" si="129"/>
         <v>28.914999999999999</v>
       </c>
       <c r="Q222" s="23">
-        <f t="shared" si="146"/>
+        <f t="shared" si="129"/>
         <v>20.379099999999998</v>
       </c>
       <c r="R222" s="23">
-        <f t="shared" si="146"/>
+        <f t="shared" si="129"/>
         <v>18.916029999999999</v>
       </c>
       <c r="S222" s="24">
-        <f t="shared" si="146"/>
+        <f t="shared" si="129"/>
         <v>87.728888000000012</v>
       </c>
       <c r="T222" s="24">
-        <f t="shared" si="146"/>
+        <f t="shared" si="129"/>
         <v>49.308093999999997</v>
       </c>
       <c r="U222" s="24">
-        <f t="shared" si="146"/>
+        <f t="shared" si="129"/>
         <v>62.733524000000003</v>
       </c>
     </row>
@@ -20524,7 +19789,7 @@
     </row>
     <row r="224" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E224" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F224" t="s">
         <v>142</v>
@@ -20588,44 +19853,44 @@
     </row>
     <row r="225" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E225" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="226" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E226" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="228" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E228" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H228" s="26" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="229" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E229" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H229" s="26" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="230" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E230" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H230" s="26" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="231" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E231" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H231" s="26" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -20654,16 +19919,16 @@
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E2" s="21">
         <v>0.2</v>
@@ -20693,10 +19958,10 @@
         <v>0.1</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P2" s="20">
         <v>2.5000000000000001E-2</v>
@@ -20714,10 +19979,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="V2" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="W2" s="21">
         <v>0.1</v>
@@ -20729,84 +19994,84 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="Z2" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="E3" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="F3" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="G3" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="H3" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="I3" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="J3" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="K3" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="M3" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="N3" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="O3" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="P3" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="Q3" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="R3" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="S3" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="T3" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="V3" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="W3" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="V3" s="20" t="s">
+      <c r="X3" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="W3" s="20" t="s">
+      <c r="Y3" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="X3" s="20" t="s">
+      <c r="Z3" s="20" t="s">
         <v>291</v>
-      </c>
-      <c r="Y3" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="Z3" s="20" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -20871,71 +20136,71 @@
         <v>200692960</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E6" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="H6" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="I6" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="M6" s="20" t="s">
         <v>296</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>298</v>
       </c>
       <c r="N6" s="20"/>
       <c r="O6" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R6" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="S6" s="20">
         <v>0.14499999999999999</v>
       </c>
       <c r="T6" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="U6" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="V6" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="W6" s="20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="X6" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Y6" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Z6" s="21">
         <v>0.14499999999999999</v>
@@ -20949,71 +20214,71 @@
         <v>200692961</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E7" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="H7" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="I7" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="M7" s="20" t="s">
         <v>296</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>298</v>
       </c>
       <c r="N7" s="20"/>
       <c r="O7" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R7" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="S7" s="20">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="T7" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="U7" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="V7" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="W7" s="20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="X7" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Y7" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Z7" s="21">
         <v>8.5000000000000006E-2</v>
@@ -21027,71 +20292,71 @@
         <v>200692962</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E8" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="H8" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="I8" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="M8" s="20" t="s">
         <v>296</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>298</v>
       </c>
       <c r="N8" s="20"/>
       <c r="O8" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q8" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R8" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="S8" s="20">
         <v>0.189</v>
       </c>
       <c r="T8" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="U8" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="V8" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="W8" s="20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="X8" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Y8" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Z8" s="21">
         <v>0.189</v>
@@ -21105,71 +20370,71 @@
         <v>200692963</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E9" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="H9" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="I9" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="M9" s="20" t="s">
         <v>296</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>298</v>
       </c>
       <c r="N9" s="20"/>
       <c r="O9" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R9" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="S9" s="20">
         <v>7.8E-2</v>
       </c>
       <c r="T9" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="U9" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="V9" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="W9" s="20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="X9" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Y9" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Z9" s="21">
         <v>7.8E-2</v>
@@ -21183,71 +20448,71 @@
         <v>200692964</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E10" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="H10" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="I10" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="M10" s="20" t="s">
         <v>296</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="M10" s="20" t="s">
-        <v>298</v>
       </c>
       <c r="N10" s="20"/>
       <c r="O10" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R10" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="S10" s="20">
         <v>0.23899999999999999</v>
       </c>
       <c r="T10" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="U10" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="V10" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="W10" s="20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="X10" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Y10" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Z10" s="21">
         <v>0.23899999999999999</v>
@@ -21261,71 +20526,71 @@
         <v>200692965</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E11" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="H11" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="I11" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="M11" s="20" t="s">
         <v>296</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>298</v>
       </c>
       <c r="N11" s="20"/>
       <c r="O11" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="S11" s="20">
         <v>0.159</v>
       </c>
       <c r="T11" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="U11" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="V11" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="W11" s="20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="X11" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Y11" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Z11" s="21">
         <v>0.159</v>
@@ -21339,71 +20604,71 @@
         <v>200692966</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E12" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="H12" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="I12" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="M12" s="20" t="s">
         <v>296</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>298</v>
       </c>
       <c r="N12" s="20"/>
       <c r="O12" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P12" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q12" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R12" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="S12" s="20">
         <v>0.184</v>
       </c>
       <c r="T12" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="U12" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="V12" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="W12" s="20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="X12" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Y12" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Z12" s="21">
         <v>0.184</v>
@@ -21447,71 +20712,71 @@
         <v>200693816</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E14" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="H14" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="I14" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="M14" s="20" t="s">
         <v>296</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>298</v>
       </c>
       <c r="N14" s="20"/>
       <c r="O14" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P14" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R14" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="S14" s="20">
         <v>0.218</v>
       </c>
       <c r="T14" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="U14" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="V14" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="W14" s="20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="X14" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Y14" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Z14" s="21">
         <v>0.218</v>
@@ -21525,71 +20790,71 @@
         <v>200693817</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E15" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="G15" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="H15" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="I15" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="M15" s="20" t="s">
         <v>296</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>298</v>
       </c>
       <c r="N15" s="20"/>
       <c r="O15" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q15" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R15" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="S15" s="20">
         <v>0.22600000000000001</v>
       </c>
       <c r="T15" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="U15" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="V15" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="W15" s="20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="X15" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Y15" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Z15" s="21">
         <v>0.22600000000000001</v>
@@ -21603,71 +20868,71 @@
         <v>200693818</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E16" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="H16" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="I16" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="M16" s="20" t="s">
         <v>296</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>298</v>
       </c>
       <c r="N16" s="20"/>
       <c r="O16" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P16" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q16" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R16" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="S16" s="20">
         <v>0.19900000000000001</v>
       </c>
       <c r="T16" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="U16" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="V16" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="W16" s="20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="X16" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Y16" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Z16" s="21">
         <v>0.19900000000000001</v>
@@ -21681,71 +20946,71 @@
         <v>200693819</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E17" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="G17" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="H17" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="I17" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="M17" s="20" t="s">
         <v>296</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="M17" s="20" t="s">
-        <v>298</v>
       </c>
       <c r="N17" s="20"/>
       <c r="O17" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P17" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q17" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R17" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="S17" s="20">
         <v>0.19800000000000001</v>
       </c>
       <c r="T17" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="U17" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="V17" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="W17" s="20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="X17" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Y17" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Z17" s="21">
         <v>0.19800000000000001</v>
@@ -21759,71 +21024,71 @@
         <v>200693820</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E18" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="G18" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="H18" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="I18" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="M18" s="20" t="s">
         <v>296</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>298</v>
       </c>
       <c r="N18" s="20"/>
       <c r="O18" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P18" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q18" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R18" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="S18" s="20">
         <v>0.19700000000000001</v>
       </c>
       <c r="T18" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="U18" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="V18" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="W18" s="20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="X18" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Y18" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Z18" s="21">
         <v>0.19700000000000001</v>
@@ -21837,71 +21102,71 @@
         <v>200693821</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E19" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="G19" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="H19" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="I19" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="M19" s="20" t="s">
         <v>296</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="K19" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="L19" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="M19" s="20" t="s">
-        <v>298</v>
       </c>
       <c r="N19" s="20"/>
       <c r="O19" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P19" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q19" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R19" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="S19" s="20">
         <v>0.248</v>
       </c>
       <c r="T19" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="U19" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="V19" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="W19" s="20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="X19" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Y19" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Z19" s="21">
         <v>0.248</v>
@@ -21915,71 +21180,71 @@
         <v>200693822</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E20" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="H20" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="I20" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="M20" s="20" t="s">
         <v>296</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="K20" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="M20" s="20" t="s">
-        <v>298</v>
       </c>
       <c r="N20" s="20"/>
       <c r="O20" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P20" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q20" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R20" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="S20" s="22">
         <v>0.24</v>
       </c>
       <c r="T20" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="U20" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="V20" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="W20" s="20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="X20" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Y20" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Z20" s="21">
         <v>0.24</v>
